--- a/SoftwareSanitario/database/excel/exams_data.xlsx
+++ b/SoftwareSanitario/database/excel/exams_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="24" documentId="11_AD4D5CB4E552A52AC6156845DA9857005BDEDDA4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FFCF224C-F566-451A-B45D-F41C9C926903}"/>
   <bookViews>
-    <workbookView xWindow="3888" yWindow="912" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5304" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1860,11 +1860,11 @@
       </c>
       <c r="B1">
         <f ca="1">RANDBETWEEN(1,2000)</f>
-        <v>1225</v>
+        <v>1305</v>
       </c>
       <c r="C1">
         <f ca="1">RANDBETWEEN(1,2000)</f>
-        <v>518</v>
+        <v>1325</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:C65" ca="1" si="0">RANDBETWEEN(1,2000)</f>
-        <v>762</v>
+        <v>1335</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>881</v>
+        <v>1052</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -1900,11 +1900,11 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>1929</v>
+        <v>1261</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1858</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>655</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>630</v>
+        <v>2000</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1817</v>
+        <v>157</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>530</v>
+        <v>1962</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1960,11 +1960,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>747</v>
+        <v>1765</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>462</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1743</v>
+        <v>924</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1095</v>
+        <v>1872</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>592</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -2020,11 +2020,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>574</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>1449</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>974</v>
+        <v>821</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>1082</v>
+        <v>1407</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -2060,11 +2060,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>302</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>1765</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -2080,11 +2080,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>520</v>
+        <v>698</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>1268</v>
+        <v>1776</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -2100,11 +2100,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>437</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>1246</v>
+        <v>885</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>820</v>
+        <v>1661</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>1717</v>
+        <v>1137</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2140,11 +2140,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>669</v>
+        <v>547</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>988</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -2160,11 +2160,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1486</v>
+        <v>1751</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>962</v>
+        <v>595</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -2180,11 +2180,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>937</v>
+        <v>1507</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>455</v>
+        <v>1544</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>1044</v>
+        <v>624</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>1854</v>
+        <v>1198</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -2220,11 +2220,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>726</v>
+        <v>227</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>571</v>
+        <v>911</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>1795</v>
+        <v>1038</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -2260,11 +2260,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>794</v>
+        <v>1369</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>1232</v>
+        <v>1573</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1193</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>449</v>
+        <v>968</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>1893</v>
+        <v>643</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>1293</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -2320,11 +2320,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>1783</v>
+        <v>1806</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>1110</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2340,11 +2340,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>1050</v>
+        <v>1245</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>656</v>
+        <v>922</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>1112</v>
+        <v>1153</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>858</v>
+        <v>1235</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>679</v>
+        <v>1802</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>808</v>
+        <v>1185</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -2400,11 +2400,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>557</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -2420,11 +2420,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <v>1551</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>1790</v>
+        <v>1237</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -2440,11 +2440,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>1159</v>
+        <v>1693</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>1592</v>
+        <v>775</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -2460,11 +2460,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>564</v>
+        <v>1761</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>30</v>
@@ -2480,11 +2480,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>332</v>
+        <v>148</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>774</v>
+        <v>625</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
@@ -2500,11 +2500,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>532</v>
+        <v>1279</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>1844</v>
+        <v>1077</v>
       </c>
       <c r="D33" t="s">
         <v>32</v>
@@ -2520,11 +2520,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>765</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -2540,11 +2540,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>847</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <v>1040</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -2560,11 +2560,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>1113</v>
+        <v>1700</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>443</v>
+        <v>1501</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -2580,11 +2580,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>1051</v>
+        <v>722</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>946</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>1396</v>
       </c>
       <c r="D38" t="s">
         <v>37</v>
@@ -2620,11 +2620,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>880</v>
+        <v>264</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>1963</v>
+        <v>812</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
@@ -2640,11 +2640,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>994</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>1444</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>228</v>
+        <v>1357</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>492</v>
+        <v>381</v>
       </c>
       <c r="D41" t="s">
         <v>40</v>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>1316</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>789</v>
+        <v>419</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -2700,11 +2700,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>661</v>
+        <v>713</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>824</v>
+        <v>1790</v>
       </c>
       <c r="D43" t="s">
         <v>42</v>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>396</v>
+        <v>859</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>1797</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -2740,11 +2740,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>946</v>
+        <v>1958</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>1143</v>
+        <v>1734</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
@@ -2760,11 +2760,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>1156</v>
+        <v>1613</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>559</v>
+        <v>1013</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>1182</v>
+        <v>1833</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>271</v>
       </c>
       <c r="D47" t="s">
         <v>46</v>
@@ -2800,11 +2800,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>412</v>
+        <v>821</v>
       </c>
       <c r="D48" t="s">
         <v>47</v>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>1138</v>
+        <v>1002</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>505</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>794</v>
+        <v>1132</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>1488</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
         <v>49</v>
@@ -2860,11 +2860,11 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>1242</v>
+        <v>1281</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>1556</v>
+        <v>1304</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
@@ -2880,11 +2880,11 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>1198</v>
+        <v>112</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="D52" t="s">
         <v>51</v>
@@ -2900,11 +2900,11 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>357</v>
+        <v>1680</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>1703</v>
+        <v>1572</v>
       </c>
       <c r="D53" t="s">
         <v>52</v>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
         <v>53</v>
@@ -2940,11 +2940,11 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>1686</v>
+        <v>1669</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>337</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>463</v>
+        <v>831</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>1031</v>
+        <v>348</v>
       </c>
       <c r="D56" t="s">
         <v>55</v>
@@ -2980,11 +2980,11 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>1928</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>1010</v>
+        <v>598</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
@@ -3000,11 +3000,11 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>1095</v>
+        <v>1222</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>486</v>
+        <v>1081</v>
       </c>
       <c r="D58" t="s">
         <v>57</v>
@@ -3020,11 +3020,11 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>780</v>
+        <v>905</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>1104</v>
+        <v>1356</v>
       </c>
       <c r="D59" t="s">
         <v>58</v>
@@ -3040,11 +3040,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>1379</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>1921</v>
       </c>
       <c r="D60" t="s">
         <v>59</v>
@@ -3060,11 +3060,11 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>842</v>
+        <v>1420</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>732</v>
+        <v>339</v>
       </c>
       <c r="D61" t="s">
         <v>60</v>
@@ -3080,11 +3080,11 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>1940</v>
+        <v>275</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>249</v>
+        <v>1205</v>
       </c>
       <c r="D62" t="s">
         <v>61</v>
@@ -3100,11 +3100,11 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>590</v>
+        <v>1155</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>1098</v>
+        <v>363</v>
       </c>
       <c r="D63" t="s">
         <v>62</v>
@@ -3120,11 +3120,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>584</v>
+        <v>250</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>852</v>
+        <v>1881</v>
       </c>
       <c r="D64" t="s">
         <v>63</v>
@@ -3140,11 +3140,11 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>566</v>
+        <v>1196</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>1130</v>
+        <v>420</v>
       </c>
       <c r="D65" t="s">
         <v>64</v>
@@ -3160,11 +3160,11 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:C129" ca="1" si="2">RANDBETWEEN(1,2000)</f>
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="2"/>
-        <v>290</v>
+        <v>554</v>
       </c>
       <c r="D66" t="s">
         <v>65</v>
@@ -3180,11 +3180,11 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>1198</v>
+        <v>740</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="2"/>
-        <v>1657</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>1846</v>
+        <v>1302</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="2"/>
-        <v>273</v>
+        <v>780</v>
       </c>
       <c r="D68" t="s">
         <v>67</v>
@@ -3220,11 +3220,11 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>1552</v>
+        <v>1027</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="2"/>
-        <v>1456</v>
+        <v>1935</v>
       </c>
       <c r="D69" t="s">
         <v>68</v>
@@ -3240,11 +3240,11 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>1917</v>
+        <v>793</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="2"/>
-        <v>549</v>
+        <v>1634</v>
       </c>
       <c r="D70" t="s">
         <v>69</v>
@@ -3260,11 +3260,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>776</v>
+        <v>853</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="2"/>
-        <v>302</v>
+        <v>1914</v>
       </c>
       <c r="D71" t="s">
         <v>70</v>
@@ -3280,11 +3280,11 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>844</v>
+        <v>648</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="2"/>
-        <v>325</v>
+        <v>955</v>
       </c>
       <c r="D72" t="s">
         <v>71</v>
@@ -3300,11 +3300,11 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>912</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="2"/>
-        <v>1540</v>
+        <v>663</v>
       </c>
       <c r="D73" t="s">
         <v>72</v>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>966</v>
+        <v>1537</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="2"/>
-        <v>942</v>
+        <v>1115</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
@@ -3340,11 +3340,11 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>1694</v>
+        <v>791</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="2"/>
-        <v>1506</v>
+        <v>842</v>
       </c>
       <c r="D75" t="s">
         <v>74</v>
@@ -3360,11 +3360,11 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="2"/>
-        <v>1997</v>
+        <v>1558</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="2"/>
-        <v>972</v>
+        <v>1962</v>
       </c>
       <c r="D76" t="s">
         <v>75</v>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="2"/>
-        <v>828</v>
+        <v>1291</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="2"/>
-        <v>1583</v>
+        <v>71</v>
       </c>
       <c r="D77" t="s">
         <v>76</v>
@@ -3400,11 +3400,11 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="2"/>
-        <v>390</v>
+        <v>547</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="2"/>
-        <v>278</v>
+        <v>648</v>
       </c>
       <c r="D78" t="s">
         <v>77</v>
@@ -3420,11 +3420,11 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="2"/>
-        <v>1145</v>
+        <v>1988</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="2"/>
-        <v>1601</v>
+        <v>413</v>
       </c>
       <c r="D79" t="s">
         <v>78</v>
@@ -3440,11 +3440,11 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="2"/>
-        <v>781</v>
+        <v>1485</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>759</v>
       </c>
       <c r="D80" t="s">
         <v>79</v>
@@ -3460,11 +3460,11 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="2"/>
-        <v>1869</v>
+        <v>727</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="2"/>
-        <v>1730</v>
+        <v>353</v>
       </c>
       <c r="D81" t="s">
         <v>80</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="2"/>
-        <v>1075</v>
+        <v>590</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="2"/>
-        <v>1306</v>
+        <v>1536</v>
       </c>
       <c r="D82" t="s">
         <v>81</v>
@@ -3500,11 +3500,11 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="2"/>
-        <v>1317</v>
+        <v>1744</v>
       </c>
       <c r="D83" t="s">
         <v>82</v>
@@ -3520,11 +3520,11 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="2"/>
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="2"/>
-        <v>1352</v>
+        <v>877</v>
       </c>
       <c r="D84" t="s">
         <v>83</v>
@@ -3540,11 +3540,11 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="2"/>
-        <v>1534</v>
+        <v>1139</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="2"/>
-        <v>1431</v>
+        <v>441</v>
       </c>
       <c r="D85" t="s">
         <v>84</v>
@@ -3560,11 +3560,11 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="2"/>
-        <v>905</v>
+        <v>1533</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="2"/>
-        <v>1299</v>
+        <v>149</v>
       </c>
       <c r="D86" t="s">
         <v>85</v>
@@ -3580,11 +3580,11 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="2"/>
-        <v>1523</v>
+        <v>1294</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="2"/>
-        <v>1898</v>
+        <v>815</v>
       </c>
       <c r="D87" t="s">
         <v>86</v>
@@ -3600,11 +3600,11 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="2"/>
-        <v>796</v>
+        <v>742</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="2"/>
-        <v>569</v>
+        <v>1554</v>
       </c>
       <c r="D88" t="s">
         <v>87</v>
@@ -3620,11 +3620,11 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>1699</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="2"/>
-        <v>156</v>
+        <v>1305</v>
       </c>
       <c r="D89" t="s">
         <v>88</v>
@@ -3640,11 +3640,11 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="2"/>
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="2"/>
-        <v>294</v>
+        <v>1070</v>
       </c>
       <c r="D90" t="s">
         <v>89</v>
@@ -3660,11 +3660,11 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="2"/>
-        <v>460</v>
+        <v>772</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="2"/>
-        <v>1892</v>
+        <v>1617</v>
       </c>
       <c r="D91" t="s">
         <v>90</v>
@@ -3680,11 +3680,11 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="2"/>
-        <v>1424</v>
+        <v>83</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="2"/>
-        <v>1596</v>
+        <v>1026</v>
       </c>
       <c r="D92" t="s">
         <v>91</v>
@@ -3700,11 +3700,11 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="2"/>
-        <v>803</v>
+        <v>1255</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="2"/>
-        <v>1552</v>
+        <v>179</v>
       </c>
       <c r="D93" t="s">
         <v>92</v>
@@ -3720,11 +3720,11 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>1545</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="2"/>
-        <v>1923</v>
+        <v>1334</v>
       </c>
       <c r="D94" t="s">
         <v>93</v>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="2"/>
-        <v>902</v>
+        <v>385</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="2"/>
-        <v>591</v>
+        <v>138</v>
       </c>
       <c r="D95" t="s">
         <v>94</v>
@@ -3760,11 +3760,11 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="2"/>
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="2"/>
-        <v>1119</v>
+        <v>798</v>
       </c>
       <c r="D96" t="s">
         <v>95</v>
@@ -3780,11 +3780,11 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="2"/>
-        <v>1888</v>
+        <v>1631</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>1860</v>
       </c>
       <c r="D97" t="s">
         <v>96</v>
@@ -3800,11 +3800,11 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="2"/>
-        <v>1715</v>
+        <v>190</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="2"/>
-        <v>1916</v>
+        <v>648</v>
       </c>
       <c r="D98" t="s">
         <v>97</v>
@@ -3820,11 +3820,11 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="2"/>
-        <v>1178</v>
+        <v>1247</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="2"/>
-        <v>1011</v>
+        <v>1840</v>
       </c>
       <c r="D99" t="s">
         <v>98</v>
@@ -3840,11 +3840,11 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="2"/>
-        <v>714</v>
+        <v>432</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="2"/>
-        <v>1946</v>
+        <v>682</v>
       </c>
       <c r="D100" t="s">
         <v>99</v>
@@ -3860,11 +3860,11 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="2"/>
-        <v>1337</v>
+        <v>1624</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="2"/>
-        <v>619</v>
+        <v>320</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3880,11 +3880,11 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="2"/>
-        <v>1648</v>
+        <v>387</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>559</v>
       </c>
       <c r="D102" t="s">
         <v>101</v>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="2"/>
-        <v>556</v>
+        <v>1271</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="2"/>
-        <v>684</v>
+        <v>867</v>
       </c>
       <c r="D103" t="s">
         <v>102</v>
@@ -3920,11 +3920,11 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="2"/>
-        <v>193</v>
+        <v>1207</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="2"/>
-        <v>1646</v>
+        <v>1369</v>
       </c>
       <c r="D104" t="s">
         <v>103</v>
@@ -3940,11 +3940,11 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="2"/>
-        <v>781</v>
+        <v>1479</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="2"/>
-        <v>1439</v>
+        <v>453</v>
       </c>
       <c r="D105" t="s">
         <v>104</v>
@@ -3960,11 +3960,11 @@
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="2"/>
-        <v>1722</v>
+        <v>1534</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="2"/>
-        <v>1062</v>
+        <v>1401</v>
       </c>
       <c r="D106" t="s">
         <v>105</v>
@@ -3980,11 +3980,11 @@
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="2"/>
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="2"/>
-        <v>1567</v>
+        <v>1593</v>
       </c>
       <c r="D107" t="s">
         <v>106</v>
@@ -4000,11 +4000,11 @@
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="2"/>
-        <v>475</v>
+        <v>130</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="2"/>
-        <v>1819</v>
+        <v>622</v>
       </c>
       <c r="D108" t="s">
         <v>107</v>
@@ -4020,11 +4020,11 @@
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>1755</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="2"/>
-        <v>1742</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
         <v>108</v>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="2"/>
-        <v>712</v>
+        <v>565</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="2"/>
-        <v>1162</v>
+        <v>459</v>
       </c>
       <c r="D110" t="s">
         <v>109</v>
@@ -4060,11 +4060,11 @@
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>636</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="2"/>
-        <v>1028</v>
+        <v>703</v>
       </c>
       <c r="D111" t="s">
         <v>110</v>
@@ -4080,11 +4080,11 @@
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="2"/>
-        <v>1726</v>
+        <v>761</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="2"/>
-        <v>1576</v>
+        <v>357</v>
       </c>
       <c r="D112" t="s">
         <v>111</v>
@@ -4100,11 +4100,11 @@
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="2"/>
-        <v>1143</v>
+        <v>107</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="2"/>
-        <v>565</v>
+        <v>30</v>
       </c>
       <c r="D113" t="s">
         <v>112</v>
@@ -4120,11 +4120,11 @@
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="2"/>
-        <v>893</v>
+        <v>201</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="2"/>
-        <v>1841</v>
+        <v>855</v>
       </c>
       <c r="D114" t="s">
         <v>113</v>
@@ -4140,11 +4140,11 @@
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="2"/>
-        <v>523</v>
+        <v>773</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="2"/>
-        <v>1586</v>
+        <v>1378</v>
       </c>
       <c r="D115" t="s">
         <v>114</v>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="2"/>
-        <v>917</v>
+        <v>1530</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="2"/>
-        <v>424</v>
+        <v>797</v>
       </c>
       <c r="D116" t="s">
         <v>115</v>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="2"/>
-        <v>997</v>
+        <v>1498</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="2"/>
-        <v>1442</v>
+        <v>835</v>
       </c>
       <c r="D117" t="s">
         <v>116</v>
@@ -4200,11 +4200,11 @@
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="2"/>
-        <v>154</v>
+        <v>1892</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="2"/>
-        <v>1428</v>
+        <v>1894</v>
       </c>
       <c r="D118" t="s">
         <v>117</v>
@@ -4220,11 +4220,11 @@
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="2"/>
-        <v>1065</v>
+        <v>1789</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="2"/>
-        <v>872</v>
+        <v>1354</v>
       </c>
       <c r="D119" t="s">
         <v>118</v>
@@ -4240,11 +4240,11 @@
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="2"/>
-        <v>273</v>
+        <v>1163</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="2"/>
-        <v>731</v>
+        <v>644</v>
       </c>
       <c r="D120" t="s">
         <v>119</v>
@@ -4260,11 +4260,11 @@
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="2"/>
-        <v>707</v>
+        <v>401</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="2"/>
-        <v>1296</v>
+        <v>597</v>
       </c>
       <c r="D121" t="s">
         <v>120</v>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="2"/>
-        <v>777</v>
+        <v>283</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="2"/>
-        <v>1819</v>
+        <v>1076</v>
       </c>
       <c r="D122" t="s">
         <v>121</v>
@@ -4300,11 +4300,11 @@
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="2"/>
-        <v>532</v>
+        <v>800</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="2"/>
-        <v>1990</v>
+        <v>865</v>
       </c>
       <c r="D123" t="s">
         <v>122</v>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="2"/>
-        <v>463</v>
+        <v>644</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="2"/>
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D124" t="s">
         <v>123</v>
@@ -4340,11 +4340,11 @@
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="2"/>
-        <v>424</v>
+        <v>1612</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="2"/>
-        <v>472</v>
+        <v>1443</v>
       </c>
       <c r="D125" t="s">
         <v>124</v>
@@ -4360,11 +4360,11 @@
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="2"/>
-        <v>1695</v>
+        <v>1080</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="2"/>
-        <v>1800</v>
+        <v>1346</v>
       </c>
       <c r="D126" t="s">
         <v>125</v>
@@ -4380,11 +4380,11 @@
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="2"/>
-        <v>1002</v>
+        <v>1997</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>664</v>
       </c>
       <c r="D127" t="s">
         <v>126</v>
@@ -4400,11 +4400,11 @@
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="2"/>
-        <v>906</v>
+        <v>1123</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="2"/>
-        <v>379</v>
+        <v>1849</v>
       </c>
       <c r="D128" t="s">
         <v>127</v>
@@ -4420,11 +4420,11 @@
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>1669</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="2"/>
-        <v>144</v>
+        <v>1987</v>
       </c>
       <c r="D129" t="s">
         <v>128</v>
@@ -4440,11 +4440,11 @@
       </c>
       <c r="B130">
         <f t="shared" ref="B130:C193" ca="1" si="4">RANDBETWEEN(1,2000)</f>
-        <v>273</v>
+        <v>503</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="4"/>
-        <v>1344</v>
+        <v>1225</v>
       </c>
       <c r="D130" t="s">
         <v>129</v>
@@ -4460,11 +4460,11 @@
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="4"/>
-        <v>752</v>
+        <v>178</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="4"/>
-        <v>1652</v>
+        <v>1988</v>
       </c>
       <c r="D131" t="s">
         <v>130</v>
@@ -4480,11 +4480,11 @@
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="4"/>
-        <v>1548</v>
+        <v>808</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="4"/>
-        <v>854</v>
+        <v>1824</v>
       </c>
       <c r="D132" t="s">
         <v>131</v>
@@ -4500,11 +4500,11 @@
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="4"/>
-        <v>1421</v>
+        <v>567</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="4"/>
-        <v>821</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
         <v>132</v>
@@ -4520,11 +4520,11 @@
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="4"/>
-        <v>1140</v>
+        <v>1668</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="4"/>
-        <v>1880</v>
+        <v>998</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
@@ -4540,11 +4540,11 @@
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="4"/>
-        <v>1798</v>
+        <v>1152</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="4"/>
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -4560,11 +4560,11 @@
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="4"/>
-        <v>1928</v>
+        <v>418</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="4"/>
-        <v>1487</v>
+        <v>1769</v>
       </c>
       <c r="D136" t="s">
         <v>135</v>
@@ -4580,11 +4580,11 @@
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="4"/>
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="4"/>
-        <v>534</v>
+        <v>1470</v>
       </c>
       <c r="D137" t="s">
         <v>136</v>
@@ -4600,11 +4600,11 @@
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="4"/>
-        <v>613</v>
+        <v>706</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="4"/>
-        <v>1625</v>
+        <v>33</v>
       </c>
       <c r="D138" t="s">
         <v>137</v>
@@ -4620,11 +4620,11 @@
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="4"/>
-        <v>1347</v>
+        <v>672</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="4"/>
-        <v>833</v>
+        <v>1927</v>
       </c>
       <c r="D139" t="s">
         <v>138</v>
@@ -4640,11 +4640,11 @@
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="4"/>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="4"/>
-        <v>521</v>
+        <v>212</v>
       </c>
       <c r="D140" t="s">
         <v>139</v>
@@ -4660,11 +4660,11 @@
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="4"/>
-        <v>1695</v>
+        <v>1337</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="4"/>
-        <v>1304</v>
+        <v>1228</v>
       </c>
       <c r="D141" t="s">
         <v>140</v>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="4"/>
-        <v>855</v>
+        <v>553</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="4"/>
-        <v>1179</v>
+        <v>1941</v>
       </c>
       <c r="D142" t="s">
         <v>141</v>
@@ -4700,11 +4700,11 @@
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>356</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="4"/>
-        <v>1324</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
         <v>142</v>
@@ -4720,11 +4720,11 @@
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="4"/>
-        <v>720</v>
+        <v>1404</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="4"/>
-        <v>840</v>
+        <v>1645</v>
       </c>
       <c r="D144" t="s">
         <v>143</v>
@@ -4740,11 +4740,11 @@
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="4"/>
-        <v>626</v>
+        <v>1138</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="4"/>
-        <v>302</v>
+        <v>1914</v>
       </c>
       <c r="D145" t="s">
         <v>144</v>
@@ -4760,11 +4760,11 @@
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="4"/>
-        <v>584</v>
+        <v>1126</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="4"/>
-        <v>819</v>
+        <v>956</v>
       </c>
       <c r="D146" t="s">
         <v>145</v>
@@ -4780,11 +4780,11 @@
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="4"/>
-        <v>856</v>
+        <v>917</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="4"/>
-        <v>1502</v>
+        <v>1783</v>
       </c>
       <c r="D147" t="s">
         <v>146</v>
@@ -4800,11 +4800,11 @@
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="4"/>
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="4"/>
-        <v>1810</v>
+        <v>574</v>
       </c>
       <c r="D148" t="s">
         <v>147</v>
@@ -4820,11 +4820,11 @@
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="4"/>
-        <v>541</v>
+        <v>215</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="4"/>
-        <v>747</v>
+        <v>1215</v>
       </c>
       <c r="D149" t="s">
         <v>148</v>
@@ -4840,11 +4840,11 @@
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="4"/>
-        <v>1449</v>
+        <v>1791</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="4"/>
-        <v>1375</v>
+        <v>147</v>
       </c>
       <c r="D150" t="s">
         <v>149</v>
@@ -4860,11 +4860,11 @@
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="4"/>
-        <v>1458</v>
+        <v>1284</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="4"/>
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4880,11 +4880,11 @@
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="4"/>
-        <v>1068</v>
+        <v>311</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="4"/>
-        <v>259</v>
+        <v>555</v>
       </c>
       <c r="D152" t="s">
         <v>151</v>
@@ -4900,11 +4900,11 @@
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="4"/>
-        <v>836</v>
+        <v>1603</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="4"/>
-        <v>742</v>
+        <v>1651</v>
       </c>
       <c r="D153" t="s">
         <v>152</v>
@@ -4920,11 +4920,11 @@
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="4"/>
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="4"/>
-        <v>1108</v>
+        <v>493</v>
       </c>
       <c r="D154" t="s">
         <v>153</v>
@@ -4940,11 +4940,11 @@
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="4"/>
-        <v>1146</v>
+        <v>313</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="4"/>
-        <v>1299</v>
+        <v>210</v>
       </c>
       <c r="D155" t="s">
         <v>154</v>
@@ -4960,11 +4960,11 @@
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="4"/>
-        <v>1962</v>
+        <v>1094</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="4"/>
-        <v>756</v>
+        <v>997</v>
       </c>
       <c r="D156" t="s">
         <v>155</v>
@@ -4980,11 +4980,11 @@
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="4"/>
-        <v>414</v>
+        <v>1026</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="4"/>
-        <v>809</v>
+        <v>1190</v>
       </c>
       <c r="D157" t="s">
         <v>156</v>
@@ -5000,11 +5000,11 @@
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="4"/>
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="4"/>
-        <v>583</v>
+        <v>1957</v>
       </c>
       <c r="D158" t="s">
         <v>157</v>
@@ -5020,11 +5020,11 @@
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="4"/>
-        <v>813</v>
+        <v>965</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="4"/>
-        <v>716</v>
+        <v>98</v>
       </c>
       <c r="D159" t="s">
         <v>158</v>
@@ -5040,11 +5040,11 @@
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>417</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="4"/>
-        <v>372</v>
+        <v>1859</v>
       </c>
       <c r="D160" t="s">
         <v>159</v>
@@ -5060,11 +5060,11 @@
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="4"/>
-        <v>691</v>
+        <v>1174</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="4"/>
-        <v>389</v>
+        <v>1904</v>
       </c>
       <c r="D161" t="s">
         <v>160</v>
@@ -5080,11 +5080,11 @@
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="4"/>
-        <v>1543</v>
+        <v>1222</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="4"/>
-        <v>188</v>
+        <v>1126</v>
       </c>
       <c r="D162" t="s">
         <v>161</v>
@@ -5100,11 +5100,11 @@
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="4"/>
-        <v>535</v>
+        <v>1205</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="4"/>
-        <v>1055</v>
+        <v>466</v>
       </c>
       <c r="D163" t="s">
         <v>162</v>
@@ -5120,11 +5120,11 @@
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="4"/>
-        <v>1981</v>
+        <v>334</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="4"/>
-        <v>1608</v>
+        <v>1575</v>
       </c>
       <c r="D164" t="s">
         <v>163</v>
@@ -5140,11 +5140,11 @@
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="4"/>
-        <v>1970</v>
+        <v>1865</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="4"/>
-        <v>120</v>
+        <v>1313</v>
       </c>
       <c r="D165" t="s">
         <v>164</v>
@@ -5160,11 +5160,11 @@
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="4"/>
-        <v>1023</v>
+        <v>1536</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>1435</v>
       </c>
       <c r="D166" t="s">
         <v>165</v>
@@ -5180,11 +5180,11 @@
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="4"/>
-        <v>1549</v>
+        <v>1336</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="4"/>
-        <v>968</v>
+        <v>1095</v>
       </c>
       <c r="D167" t="s">
         <v>166</v>
@@ -5200,11 +5200,11 @@
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="4"/>
-        <v>818</v>
+        <v>990</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="4"/>
-        <v>500</v>
+        <v>368</v>
       </c>
       <c r="D168" t="s">
         <v>167</v>
@@ -5220,11 +5220,11 @@
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="4"/>
-        <v>712</v>
+        <v>621</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
-        <v>730</v>
+        <v>1081</v>
       </c>
       <c r="D169" t="s">
         <v>168</v>
@@ -5240,11 +5240,11 @@
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="4"/>
-        <v>527</v>
+        <v>696</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D170" t="s">
         <v>169</v>
@@ -5260,11 +5260,11 @@
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="4"/>
-        <v>843</v>
+        <v>1346</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
-        <v>634</v>
+        <v>936</v>
       </c>
       <c r="D171" t="s">
         <v>170</v>
@@ -5280,11 +5280,11 @@
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="4"/>
-        <v>764</v>
+        <v>1393</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
-        <v>243</v>
+        <v>1574</v>
       </c>
       <c r="D172" t="s">
         <v>171</v>
@@ -5300,11 +5300,11 @@
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>1952</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
-        <v>1118</v>
+        <v>1271</v>
       </c>
       <c r="D173" t="s">
         <v>172</v>
@@ -5320,11 +5320,11 @@
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="4"/>
-        <v>485</v>
+        <v>1136</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
-        <v>1596</v>
+        <v>1797</v>
       </c>
       <c r="D174" t="s">
         <v>173</v>
@@ -5340,11 +5340,11 @@
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="4"/>
-        <v>1164</v>
+        <v>981</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
-        <v>1765</v>
+        <v>497</v>
       </c>
       <c r="D175" t="s">
         <v>174</v>
@@ -5360,11 +5360,11 @@
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="4"/>
-        <v>1588</v>
+        <v>1785</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
-        <v>935</v>
+        <v>79</v>
       </c>
       <c r="D176" t="s">
         <v>175</v>
@@ -5380,11 +5380,11 @@
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="4"/>
-        <v>471</v>
+        <v>1026</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>674</v>
       </c>
       <c r="D177" t="s">
         <v>176</v>
@@ -5400,11 +5400,11 @@
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="4"/>
-        <v>1649</v>
+        <v>859</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
-        <v>674</v>
+        <v>1093</v>
       </c>
       <c r="D178" t="s">
         <v>177</v>
@@ -5420,11 +5420,11 @@
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="4"/>
-        <v>982</v>
+        <v>1495</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="4"/>
-        <v>1245</v>
+        <v>851</v>
       </c>
       <c r="D179" t="s">
         <v>178</v>
@@ -5440,11 +5440,11 @@
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="4"/>
-        <v>1739</v>
+        <v>1202</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
-        <v>660</v>
+        <v>156</v>
       </c>
       <c r="D180" t="s">
         <v>179</v>
@@ -5460,11 +5460,11 @@
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="4"/>
-        <v>1535</v>
+        <v>39</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="4"/>
-        <v>1308</v>
+        <v>1932</v>
       </c>
       <c r="D181" t="s">
         <v>180</v>
@@ -5480,11 +5480,11 @@
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="4"/>
-        <v>606</v>
+        <v>1273</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
-        <v>1173</v>
+        <v>626</v>
       </c>
       <c r="D182" t="s">
         <v>181</v>
@@ -5500,11 +5500,11 @@
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="4"/>
-        <v>1853</v>
+        <v>855</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="4"/>
-        <v>1397</v>
+        <v>1908</v>
       </c>
       <c r="D183" t="s">
         <v>182</v>
@@ -5520,11 +5520,11 @@
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="4"/>
-        <v>1563</v>
+        <v>546</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
-        <v>721</v>
+        <v>538</v>
       </c>
       <c r="D184" t="s">
         <v>183</v>
@@ -5540,11 +5540,11 @@
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="4"/>
-        <v>1611</v>
+        <v>1067</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
-        <v>1680</v>
+        <v>1807</v>
       </c>
       <c r="D185" t="s">
         <v>184</v>
@@ -5560,11 +5560,11 @@
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ca="1" si="4"/>
         <v>1187</v>
-      </c>
-      <c r="C186">
-        <f t="shared" ca="1" si="4"/>
-        <v>1827</v>
       </c>
       <c r="D186" t="s">
         <v>185</v>
@@ -5580,11 +5580,11 @@
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="4"/>
-        <v>1332</v>
+        <v>669</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
-        <v>230</v>
+        <v>645</v>
       </c>
       <c r="D187" t="s">
         <v>186</v>
@@ -5600,11 +5600,11 @@
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="4"/>
-        <v>113</v>
+        <v>751</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
-        <v>1561</v>
+        <v>955</v>
       </c>
       <c r="D188" t="s">
         <v>187</v>
@@ -5620,11 +5620,11 @@
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="4"/>
-        <v>634</v>
+        <v>309</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
-        <v>463</v>
+        <v>757</v>
       </c>
       <c r="D189" t="s">
         <v>188</v>
@@ -5640,11 +5640,11 @@
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="4"/>
-        <v>1974</v>
+        <v>803</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
-        <v>1504</v>
+        <v>1635</v>
       </c>
       <c r="D190" t="s">
         <v>189</v>
@@ -5660,11 +5660,11 @@
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="4"/>
-        <v>1389</v>
+        <v>1616</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
-        <v>693</v>
+        <v>338</v>
       </c>
       <c r="D191" t="s">
         <v>190</v>
@@ -5680,11 +5680,11 @@
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="4"/>
-        <v>804</v>
+        <v>254</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
-        <v>1973</v>
+        <v>244</v>
       </c>
       <c r="D192" t="s">
         <v>191</v>
@@ -5700,11 +5700,11 @@
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="4"/>
-        <v>881</v>
+        <v>1441</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
-        <v>726</v>
+        <v>292</v>
       </c>
       <c r="D193" t="s">
         <v>192</v>
@@ -5720,11 +5720,11 @@
       </c>
       <c r="B194">
         <f t="shared" ref="B194:C257" ca="1" si="6">RANDBETWEEN(1,2000)</f>
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="6"/>
-        <v>239</v>
+        <v>1531</v>
       </c>
       <c r="D194" t="s">
         <v>193</v>
@@ -5740,11 +5740,11 @@
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="6"/>
-        <v>513</v>
+        <v>798</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>1206</v>
       </c>
       <c r="D195" t="s">
         <v>194</v>
@@ -5760,11 +5760,11 @@
       </c>
       <c r="B196">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="6"/>
-        <v>1887</v>
+        <v>1668</v>
       </c>
       <c r="D196" t="s">
         <v>195</v>
@@ -5780,11 +5780,11 @@
       </c>
       <c r="B197">
         <f t="shared" ca="1" si="6"/>
-        <v>990</v>
+        <v>99</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="6"/>
-        <v>394</v>
+        <v>1827</v>
       </c>
       <c r="D197" t="s">
         <v>196</v>
@@ -5800,11 +5800,11 @@
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="6"/>
-        <v>1217</v>
+        <v>1989</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="6"/>
-        <v>1946</v>
+        <v>1553</v>
       </c>
       <c r="D198" t="s">
         <v>197</v>
@@ -5820,11 +5820,11 @@
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="6"/>
-        <v>775</v>
+        <v>1577</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="6"/>
-        <v>1331</v>
+        <v>1923</v>
       </c>
       <c r="D199" t="s">
         <v>198</v>
@@ -5840,11 +5840,11 @@
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="6"/>
-        <v>346</v>
+        <v>1220</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="6"/>
-        <v>500</v>
+        <v>791</v>
       </c>
       <c r="D200" t="s">
         <v>199</v>
@@ -5860,11 +5860,11 @@
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>1038</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="6"/>
-        <v>1176</v>
+        <v>672</v>
       </c>
       <c r="D201" t="s">
         <v>200</v>
@@ -5880,11 +5880,11 @@
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="6"/>
-        <v>1626</v>
+        <v>118</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="6"/>
-        <v>264</v>
+        <v>1126</v>
       </c>
       <c r="D202" t="s">
         <v>201</v>
@@ -5900,11 +5900,11 @@
       </c>
       <c r="B203">
         <f t="shared" ca="1" si="6"/>
-        <v>1021</v>
+        <v>1702</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="6"/>
-        <v>1518</v>
+        <v>227</v>
       </c>
       <c r="D203" t="s">
         <v>202</v>
@@ -5920,11 +5920,11 @@
       </c>
       <c r="B204">
         <f t="shared" ca="1" si="6"/>
-        <v>511</v>
+        <v>1646</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="6"/>
-        <v>1049</v>
+        <v>279</v>
       </c>
       <c r="D204" t="s">
         <v>203</v>
@@ -5940,11 +5940,11 @@
       </c>
       <c r="B205">
         <f t="shared" ca="1" si="6"/>
-        <v>1959</v>
+        <v>82</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="6"/>
-        <v>331</v>
+        <v>496</v>
       </c>
       <c r="D205" t="s">
         <v>204</v>
@@ -5960,11 +5960,11 @@
       </c>
       <c r="B206">
         <f t="shared" ca="1" si="6"/>
-        <v>1918</v>
+        <v>1653</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="6"/>
-        <v>817</v>
+        <v>203</v>
       </c>
       <c r="D206" t="s">
         <v>205</v>
@@ -5980,11 +5980,11 @@
       </c>
       <c r="B207">
         <f t="shared" ca="1" si="6"/>
-        <v>1637</v>
+        <v>1575</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="6"/>
-        <v>1841</v>
+        <v>748</v>
       </c>
       <c r="D207" t="s">
         <v>206</v>
@@ -6000,11 +6000,11 @@
       </c>
       <c r="B208">
         <f t="shared" ca="1" si="6"/>
-        <v>1474</v>
+        <v>435</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="6"/>
-        <v>387</v>
+        <v>656</v>
       </c>
       <c r="D208" t="s">
         <v>207</v>
@@ -6020,11 +6020,11 @@
       </c>
       <c r="B209">
         <f t="shared" ca="1" si="6"/>
-        <v>1691</v>
+        <v>1978</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="6"/>
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="D209" t="s">
         <v>208</v>
@@ -6040,11 +6040,11 @@
       </c>
       <c r="B210">
         <f t="shared" ca="1" si="6"/>
-        <v>1597</v>
+        <v>105</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="6"/>
-        <v>690</v>
+        <v>1519</v>
       </c>
       <c r="D210" t="s">
         <v>209</v>
@@ -6060,11 +6060,11 @@
       </c>
       <c r="B211">
         <f t="shared" ca="1" si="6"/>
-        <v>967</v>
+        <v>1534</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="6"/>
-        <v>950</v>
+        <v>421</v>
       </c>
       <c r="D211" t="s">
         <v>210</v>
@@ -6080,11 +6080,11 @@
       </c>
       <c r="B212">
         <f t="shared" ca="1" si="6"/>
-        <v>710</v>
+        <v>837</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="6"/>
-        <v>466</v>
+        <v>1075</v>
       </c>
       <c r="D212" t="s">
         <v>211</v>
@@ -6100,11 +6100,11 @@
       </c>
       <c r="B213">
         <f t="shared" ca="1" si="6"/>
-        <v>1439</v>
+        <v>962</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="6"/>
-        <v>619</v>
+        <v>1327</v>
       </c>
       <c r="D213" t="s">
         <v>212</v>
@@ -6120,11 +6120,11 @@
       </c>
       <c r="B214">
         <f t="shared" ca="1" si="6"/>
-        <v>1158</v>
+        <v>1883</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="6"/>
-        <v>1781</v>
+        <v>133</v>
       </c>
       <c r="D214" t="s">
         <v>213</v>
@@ -6140,11 +6140,11 @@
       </c>
       <c r="B215">
         <f t="shared" ca="1" si="6"/>
-        <v>861</v>
+        <v>1094</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="6"/>
-        <v>1599</v>
+        <v>838</v>
       </c>
       <c r="D215" t="s">
         <v>214</v>
@@ -6160,11 +6160,11 @@
       </c>
       <c r="B216">
         <f t="shared" ca="1" si="6"/>
-        <v>1869</v>
+        <v>1043</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="6"/>
-        <v>792</v>
+        <v>1402</v>
       </c>
       <c r="D216" t="s">
         <v>215</v>
@@ -6180,11 +6180,11 @@
       </c>
       <c r="B217">
         <f t="shared" ca="1" si="6"/>
-        <v>168</v>
+        <v>1492</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="6"/>
-        <v>834</v>
+        <v>1268</v>
       </c>
       <c r="D217" t="s">
         <v>216</v>
@@ -6200,11 +6200,11 @@
       </c>
       <c r="B218">
         <f t="shared" ca="1" si="6"/>
-        <v>1751</v>
+        <v>176</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="6"/>
-        <v>1606</v>
+        <v>536</v>
       </c>
       <c r="D218" t="s">
         <v>217</v>
@@ -6220,11 +6220,11 @@
       </c>
       <c r="B219">
         <f t="shared" ca="1" si="6"/>
-        <v>1518</v>
+        <v>1342</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="6"/>
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="D219" t="s">
         <v>218</v>
@@ -6240,11 +6240,11 @@
       </c>
       <c r="B220">
         <f t="shared" ca="1" si="6"/>
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="6"/>
-        <v>934</v>
+        <v>1868</v>
       </c>
       <c r="D220" t="s">
         <v>219</v>
@@ -6260,11 +6260,11 @@
       </c>
       <c r="B221">
         <f t="shared" ca="1" si="6"/>
-        <v>1986</v>
+        <v>379</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>1525</v>
       </c>
       <c r="D221" t="s">
         <v>220</v>
@@ -6280,11 +6280,11 @@
       </c>
       <c r="B222">
         <f t="shared" ca="1" si="6"/>
-        <v>1721</v>
+        <v>1841</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="6"/>
-        <v>1335</v>
+        <v>1027</v>
       </c>
       <c r="D222" t="s">
         <v>221</v>
@@ -6300,11 +6300,11 @@
       </c>
       <c r="B223">
         <f t="shared" ca="1" si="6"/>
-        <v>554</v>
+        <v>202</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="6"/>
-        <v>660</v>
+        <v>1037</v>
       </c>
       <c r="D223" t="s">
         <v>222</v>
@@ -6320,11 +6320,11 @@
       </c>
       <c r="B224">
         <f t="shared" ca="1" si="6"/>
-        <v>348</v>
+        <v>1952</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="6"/>
-        <v>559</v>
+        <v>142</v>
       </c>
       <c r="D224" t="s">
         <v>223</v>
@@ -6340,11 +6340,11 @@
       </c>
       <c r="B225">
         <f t="shared" ca="1" si="6"/>
-        <v>1927</v>
+        <v>658</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="6"/>
-        <v>1280</v>
+        <v>1761</v>
       </c>
       <c r="D225" t="s">
         <v>224</v>
@@ -6360,11 +6360,11 @@
       </c>
       <c r="B226">
         <f t="shared" ca="1" si="6"/>
-        <v>1542</v>
+        <v>1059</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="6"/>
-        <v>465</v>
+        <v>1275</v>
       </c>
       <c r="D226" t="s">
         <v>225</v>
@@ -6380,11 +6380,11 @@
       </c>
       <c r="B227">
         <f t="shared" ca="1" si="6"/>
-        <v>1680</v>
+        <v>1466</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="6"/>
-        <v>274</v>
+        <v>1381</v>
       </c>
       <c r="D227" t="s">
         <v>226</v>
@@ -6400,11 +6400,11 @@
       </c>
       <c r="B228">
         <f t="shared" ca="1" si="6"/>
-        <v>1707</v>
+        <v>921</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="6"/>
-        <v>1893</v>
+        <v>1937</v>
       </c>
       <c r="D228" t="s">
         <v>227</v>
@@ -6420,11 +6420,11 @@
       </c>
       <c r="B229">
         <f t="shared" ca="1" si="6"/>
-        <v>1648</v>
+        <v>327</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="6"/>
-        <v>318</v>
+        <v>957</v>
       </c>
       <c r="D229" t="s">
         <v>228</v>
@@ -6440,11 +6440,11 @@
       </c>
       <c r="B230">
         <f t="shared" ca="1" si="6"/>
-        <v>927</v>
+        <v>1812</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="6"/>
-        <v>654</v>
+        <v>1376</v>
       </c>
       <c r="D230" t="s">
         <v>229</v>
@@ -6460,11 +6460,11 @@
       </c>
       <c r="B231">
         <f t="shared" ca="1" si="6"/>
-        <v>1363</v>
+        <v>1744</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="6"/>
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D231" t="s">
         <v>230</v>
@@ -6480,11 +6480,11 @@
       </c>
       <c r="B232">
         <f t="shared" ca="1" si="6"/>
-        <v>1968</v>
+        <v>580</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="6"/>
-        <v>1094</v>
+        <v>905</v>
       </c>
       <c r="D232" t="s">
         <v>231</v>
@@ -6500,11 +6500,11 @@
       </c>
       <c r="B233">
         <f t="shared" ca="1" si="6"/>
-        <v>320</v>
+        <v>1052</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="6"/>
-        <v>1982</v>
+        <v>11</v>
       </c>
       <c r="D233" t="s">
         <v>232</v>
@@ -6520,11 +6520,11 @@
       </c>
       <c r="B234">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="6"/>
-        <v>997</v>
+        <v>1865</v>
       </c>
       <c r="D234" t="s">
         <v>233</v>
@@ -6540,11 +6540,11 @@
       </c>
       <c r="B235">
         <f t="shared" ca="1" si="6"/>
-        <v>1619</v>
+        <v>1193</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="6"/>
-        <v>1646</v>
+        <v>1325</v>
       </c>
       <c r="D235" t="s">
         <v>234</v>
@@ -6560,11 +6560,11 @@
       </c>
       <c r="B236">
         <f t="shared" ca="1" si="6"/>
-        <v>545</v>
+        <v>1602</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="6"/>
-        <v>1370</v>
+        <v>1474</v>
       </c>
       <c r="D236" t="s">
         <v>235</v>
@@ -6580,11 +6580,11 @@
       </c>
       <c r="B237">
         <f t="shared" ca="1" si="6"/>
-        <v>387</v>
+        <v>1310</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="6"/>
-        <v>796</v>
+        <v>530</v>
       </c>
       <c r="D237" t="s">
         <v>236</v>
@@ -6600,11 +6600,11 @@
       </c>
       <c r="B238">
         <f t="shared" ca="1" si="6"/>
-        <v>618</v>
+        <v>989</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="6"/>
-        <v>1683</v>
+        <v>1364</v>
       </c>
       <c r="D238" t="s">
         <v>237</v>
@@ -6620,11 +6620,11 @@
       </c>
       <c r="B239">
         <f t="shared" ca="1" si="6"/>
-        <v>1297</v>
+        <v>1584</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="6"/>
-        <v>785</v>
+        <v>1283</v>
       </c>
       <c r="D239" t="s">
         <v>238</v>
@@ -6640,11 +6640,11 @@
       </c>
       <c r="B240">
         <f t="shared" ca="1" si="6"/>
-        <v>1038</v>
+        <v>88</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="6"/>
-        <v>1964</v>
+        <v>1311</v>
       </c>
       <c r="D240" t="s">
         <v>239</v>
@@ -6660,11 +6660,11 @@
       </c>
       <c r="B241">
         <f t="shared" ca="1" si="6"/>
-        <v>1183</v>
+        <v>823</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="6"/>
-        <v>788</v>
+        <v>1081</v>
       </c>
       <c r="D241" t="s">
         <v>240</v>
@@ -6680,11 +6680,11 @@
       </c>
       <c r="B242">
         <f t="shared" ca="1" si="6"/>
-        <v>1244</v>
+        <v>1316</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="6"/>
-        <v>1589</v>
+        <v>366</v>
       </c>
       <c r="D242" t="s">
         <v>241</v>
@@ -6700,11 +6700,11 @@
       </c>
       <c r="B243">
         <f t="shared" ca="1" si="6"/>
-        <v>231</v>
+        <v>1084</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="6"/>
-        <v>979</v>
+        <v>562</v>
       </c>
       <c r="D243" t="s">
         <v>242</v>
@@ -6720,11 +6720,11 @@
       </c>
       <c r="B244">
         <f t="shared" ca="1" si="6"/>
-        <v>824</v>
+        <v>1146</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="6"/>
-        <v>1035</v>
+        <v>558</v>
       </c>
       <c r="D244" t="s">
         <v>243</v>
@@ -6740,11 +6740,11 @@
       </c>
       <c r="B245">
         <f t="shared" ca="1" si="6"/>
-        <v>1996</v>
+        <v>919</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="6"/>
-        <v>1863</v>
+        <v>1085</v>
       </c>
       <c r="D245" t="s">
         <v>244</v>
@@ -6760,11 +6760,11 @@
       </c>
       <c r="B246">
         <f t="shared" ca="1" si="6"/>
-        <v>1069</v>
+        <v>1120</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="6"/>
-        <v>1689</v>
+        <v>756</v>
       </c>
       <c r="D246" t="s">
         <v>245</v>
@@ -6780,11 +6780,11 @@
       </c>
       <c r="B247">
         <f t="shared" ca="1" si="6"/>
-        <v>1436</v>
+        <v>1863</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="6"/>
-        <v>1248</v>
+        <v>1191</v>
       </c>
       <c r="D247" t="s">
         <v>246</v>
@@ -6800,11 +6800,11 @@
       </c>
       <c r="B248">
         <f t="shared" ca="1" si="6"/>
-        <v>445</v>
+        <v>1933</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="6"/>
-        <v>1820</v>
+        <v>750</v>
       </c>
       <c r="D248" t="s">
         <v>247</v>
@@ -6820,11 +6820,11 @@
       </c>
       <c r="B249">
         <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
+        <v>555</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="6"/>
-        <v>1485</v>
+        <v>1271</v>
       </c>
       <c r="D249" t="s">
         <v>248</v>
@@ -6840,11 +6840,11 @@
       </c>
       <c r="B250">
         <f t="shared" ca="1" si="6"/>
-        <v>375</v>
+        <v>483</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="6"/>
-        <v>691</v>
+        <v>1885</v>
       </c>
       <c r="D250" t="s">
         <v>249</v>
@@ -6860,11 +6860,11 @@
       </c>
       <c r="B251">
         <f t="shared" ca="1" si="6"/>
-        <v>1020</v>
+        <v>1854</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="6"/>
-        <v>1484</v>
+        <v>606</v>
       </c>
       <c r="D251" t="s">
         <v>250</v>
@@ -6880,11 +6880,11 @@
       </c>
       <c r="B252">
         <f t="shared" ca="1" si="6"/>
-        <v>1838</v>
+        <v>1717</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="6"/>
-        <v>1131</v>
+        <v>517</v>
       </c>
       <c r="D252" t="s">
         <v>251</v>
@@ -6900,11 +6900,11 @@
       </c>
       <c r="B253">
         <f t="shared" ca="1" si="6"/>
-        <v>1396</v>
+        <v>40</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="6"/>
-        <v>283</v>
+        <v>1089</v>
       </c>
       <c r="D253" t="s">
         <v>252</v>
@@ -6920,11 +6920,11 @@
       </c>
       <c r="B254">
         <f t="shared" ca="1" si="6"/>
-        <v>478</v>
+        <v>1715</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="6"/>
-        <v>1974</v>
+        <v>1439</v>
       </c>
       <c r="D254" t="s">
         <v>253</v>
@@ -6940,11 +6940,11 @@
       </c>
       <c r="B255">
         <f t="shared" ca="1" si="6"/>
-        <v>657</v>
+        <v>9</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
-        <v>796</v>
+        <v>1986</v>
       </c>
       <c r="D255" t="s">
         <v>254</v>
@@ -6960,11 +6960,11 @@
       </c>
       <c r="B256">
         <f t="shared" ca="1" si="6"/>
-        <v>1769</v>
+        <v>1177</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
-        <v>1390</v>
+        <v>904</v>
       </c>
       <c r="D256" t="s">
         <v>255</v>
@@ -6980,11 +6980,11 @@
       </c>
       <c r="B257">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="6"/>
-        <v>1220</v>
+        <v>1854</v>
       </c>
       <c r="D257" t="s">
         <v>256</v>
@@ -7000,11 +7000,11 @@
       </c>
       <c r="B258">
         <f t="shared" ref="B258:C321" ca="1" si="8">RANDBETWEEN(1,2000)</f>
-        <v>172</v>
+        <v>1552</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="8"/>
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="D258" t="s">
         <v>257</v>
@@ -7020,11 +7020,11 @@
       </c>
       <c r="B259">
         <f t="shared" ca="1" si="8"/>
-        <v>1407</v>
+        <v>596</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="8"/>
-        <v>130</v>
+        <v>1249</v>
       </c>
       <c r="D259" t="s">
         <v>258</v>
@@ -7040,11 +7040,11 @@
       </c>
       <c r="B260">
         <f t="shared" ca="1" si="8"/>
-        <v>156</v>
+        <v>1877</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="8"/>
-        <v>1764</v>
+        <v>452</v>
       </c>
       <c r="D260" t="s">
         <v>259</v>
@@ -7060,11 +7060,11 @@
       </c>
       <c r="B261">
         <f t="shared" ca="1" si="8"/>
-        <v>629</v>
+        <v>1044</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="8"/>
-        <v>951</v>
+        <v>1466</v>
       </c>
       <c r="D261" t="s">
         <v>260</v>
@@ -7080,11 +7080,11 @@
       </c>
       <c r="B262">
         <f t="shared" ca="1" si="8"/>
-        <v>1336</v>
+        <v>1086</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="8"/>
-        <v>978</v>
+        <v>1295</v>
       </c>
       <c r="D262" t="s">
         <v>261</v>
@@ -7100,11 +7100,11 @@
       </c>
       <c r="B263">
         <f t="shared" ca="1" si="8"/>
-        <v>1449</v>
+        <v>142</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="8"/>
-        <v>160</v>
+        <v>1754</v>
       </c>
       <c r="D263" t="s">
         <v>262</v>
@@ -7120,11 +7120,11 @@
       </c>
       <c r="B264">
         <f t="shared" ca="1" si="8"/>
-        <v>1563</v>
+        <v>1861</v>
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="8"/>
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D264" t="s">
         <v>263</v>
@@ -7140,11 +7140,11 @@
       </c>
       <c r="B265">
         <f t="shared" ca="1" si="8"/>
-        <v>1168</v>
+        <v>898</v>
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>508</v>
       </c>
       <c r="D265" t="s">
         <v>264</v>
@@ -7160,11 +7160,11 @@
       </c>
       <c r="B266">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>555</v>
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="8"/>
-        <v>1326</v>
+        <v>1975</v>
       </c>
       <c r="D266" t="s">
         <v>265</v>
@@ -7180,11 +7180,11 @@
       </c>
       <c r="B267">
         <f t="shared" ca="1" si="8"/>
-        <v>1312</v>
+        <v>1117</v>
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="8"/>
-        <v>1093</v>
+        <v>360</v>
       </c>
       <c r="D267" t="s">
         <v>266</v>
@@ -7200,11 +7200,11 @@
       </c>
       <c r="B268">
         <f t="shared" ca="1" si="8"/>
-        <v>334</v>
+        <v>1268</v>
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="8"/>
-        <v>1445</v>
+        <v>1999</v>
       </c>
       <c r="D268" t="s">
         <v>267</v>
@@ -7220,11 +7220,11 @@
       </c>
       <c r="B269">
         <f t="shared" ca="1" si="8"/>
-        <v>601</v>
+        <v>237</v>
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="8"/>
-        <v>1009</v>
+        <v>268</v>
       </c>
       <c r="D269" t="s">
         <v>268</v>
@@ -7240,11 +7240,11 @@
       </c>
       <c r="B270">
         <f t="shared" ca="1" si="8"/>
-        <v>621</v>
+        <v>323</v>
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="8"/>
-        <v>1510</v>
+        <v>1791</v>
       </c>
       <c r="D270" t="s">
         <v>269</v>
@@ -7260,11 +7260,11 @@
       </c>
       <c r="B271">
         <f t="shared" ca="1" si="8"/>
-        <v>1492</v>
+        <v>318</v>
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="8"/>
-        <v>1668</v>
+        <v>1105</v>
       </c>
       <c r="D271" t="s">
         <v>270</v>
@@ -7280,11 +7280,11 @@
       </c>
       <c r="B272">
         <f t="shared" ca="1" si="8"/>
-        <v>1885</v>
+        <v>793</v>
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="8"/>
-        <v>989</v>
+        <v>1034</v>
       </c>
       <c r="D272" t="s">
         <v>271</v>
@@ -7300,11 +7300,11 @@
       </c>
       <c r="B273">
         <f t="shared" ca="1" si="8"/>
-        <v>1585</v>
+        <v>1685</v>
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="8"/>
-        <v>337</v>
+        <v>1500</v>
       </c>
       <c r="D273" t="s">
         <v>272</v>
@@ -7320,11 +7320,11 @@
       </c>
       <c r="B274">
         <f t="shared" ca="1" si="8"/>
-        <v>1088</v>
+        <v>1824</v>
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="8"/>
-        <v>1796</v>
+        <v>652</v>
       </c>
       <c r="D274" t="s">
         <v>273</v>
@@ -7340,11 +7340,11 @@
       </c>
       <c r="B275">
         <f t="shared" ca="1" si="8"/>
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="8"/>
-        <v>1068</v>
+        <v>26</v>
       </c>
       <c r="D275" t="s">
         <v>274</v>
@@ -7360,11 +7360,11 @@
       </c>
       <c r="B276">
         <f t="shared" ca="1" si="8"/>
-        <v>1809</v>
+        <v>218</v>
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="8"/>
-        <v>1443</v>
+        <v>744</v>
       </c>
       <c r="D276" t="s">
         <v>275</v>
@@ -7380,11 +7380,11 @@
       </c>
       <c r="B277">
         <f t="shared" ca="1" si="8"/>
-        <v>325</v>
+        <v>1356</v>
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="8"/>
-        <v>1448</v>
+        <v>664</v>
       </c>
       <c r="D277" t="s">
         <v>276</v>
@@ -7400,11 +7400,11 @@
       </c>
       <c r="B278">
         <f t="shared" ca="1" si="8"/>
-        <v>492</v>
+        <v>1665</v>
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="8"/>
-        <v>1687</v>
+        <v>1731</v>
       </c>
       <c r="D278" t="s">
         <v>277</v>
@@ -7420,11 +7420,11 @@
       </c>
       <c r="B279">
         <f t="shared" ca="1" si="8"/>
-        <v>868</v>
+        <v>348</v>
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="8"/>
-        <v>612</v>
+        <v>718</v>
       </c>
       <c r="D279" t="s">
         <v>278</v>
@@ -7440,11 +7440,11 @@
       </c>
       <c r="B280">
         <f t="shared" ca="1" si="8"/>
-        <v>1439</v>
+        <v>1395</v>
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>1908</v>
       </c>
       <c r="D280" t="s">
         <v>279</v>
@@ -7460,11 +7460,11 @@
       </c>
       <c r="B281">
         <f t="shared" ca="1" si="8"/>
-        <v>665</v>
+        <v>158</v>
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="8"/>
-        <v>678</v>
+        <v>245</v>
       </c>
       <c r="D281" t="s">
         <v>280</v>
@@ -7480,11 +7480,11 @@
       </c>
       <c r="B282">
         <f t="shared" ca="1" si="8"/>
-        <v>167</v>
+        <v>1865</v>
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="8"/>
-        <v>1302</v>
+        <v>1195</v>
       </c>
       <c r="D282" t="s">
         <v>281</v>
@@ -7500,11 +7500,11 @@
       </c>
       <c r="B283">
         <f t="shared" ca="1" si="8"/>
-        <v>383</v>
+        <v>1150</v>
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="8"/>
-        <v>1650</v>
+        <v>736</v>
       </c>
       <c r="D283" t="s">
         <v>282</v>
@@ -7520,11 +7520,11 @@
       </c>
       <c r="B284">
         <f t="shared" ca="1" si="8"/>
-        <v>961</v>
+        <v>1761</v>
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="8"/>
-        <v>142</v>
+        <v>1497</v>
       </c>
       <c r="D284" t="s">
         <v>283</v>
@@ -7540,11 +7540,11 @@
       </c>
       <c r="B285">
         <f t="shared" ca="1" si="8"/>
-        <v>877</v>
+        <v>652</v>
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="8"/>
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="D285" t="s">
         <v>284</v>
@@ -7560,11 +7560,11 @@
       </c>
       <c r="B286">
         <f t="shared" ca="1" si="8"/>
-        <v>945</v>
+        <v>256</v>
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="8"/>
-        <v>1773</v>
+        <v>194</v>
       </c>
       <c r="D286" t="s">
         <v>285</v>
@@ -7580,11 +7580,11 @@
       </c>
       <c r="B287">
         <f t="shared" ca="1" si="8"/>
-        <v>563</v>
+        <v>1858</v>
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="8"/>
-        <v>1897</v>
+        <v>1802</v>
       </c>
       <c r="D287" t="s">
         <v>286</v>
@@ -7600,11 +7600,11 @@
       </c>
       <c r="B288">
         <f t="shared" ca="1" si="8"/>
-        <v>355</v>
+        <v>1197</v>
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="8"/>
-        <v>181</v>
+        <v>342</v>
       </c>
       <c r="D288" t="s">
         <v>287</v>
@@ -7620,11 +7620,11 @@
       </c>
       <c r="B289">
         <f t="shared" ca="1" si="8"/>
-        <v>1934</v>
+        <v>579</v>
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="8"/>
-        <v>1369</v>
+        <v>244</v>
       </c>
       <c r="D289" t="s">
         <v>288</v>
@@ -7640,11 +7640,11 @@
       </c>
       <c r="B290">
         <f t="shared" ca="1" si="8"/>
-        <v>1063</v>
+        <v>1588</v>
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>1905</v>
       </c>
       <c r="D290" t="s">
         <v>289</v>
@@ -7660,11 +7660,11 @@
       </c>
       <c r="B291">
         <f t="shared" ca="1" si="8"/>
-        <v>190</v>
+        <v>1294</v>
       </c>
       <c r="C291">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>1345</v>
       </c>
       <c r="D291" t="s">
         <v>290</v>
@@ -7680,11 +7680,11 @@
       </c>
       <c r="B292">
         <f t="shared" ca="1" si="8"/>
-        <v>432</v>
+        <v>1188</v>
       </c>
       <c r="C292">
         <f t="shared" ca="1" si="8"/>
-        <v>1642</v>
+        <v>1539</v>
       </c>
       <c r="D292" t="s">
         <v>291</v>
@@ -7700,11 +7700,11 @@
       </c>
       <c r="B293">
         <f t="shared" ca="1" si="8"/>
-        <v>1965</v>
+        <v>953</v>
       </c>
       <c r="C293">
         <f t="shared" ca="1" si="8"/>
-        <v>785</v>
+        <v>1273</v>
       </c>
       <c r="D293" t="s">
         <v>292</v>
@@ -7720,11 +7720,11 @@
       </c>
       <c r="B294">
         <f t="shared" ca="1" si="8"/>
-        <v>683</v>
+        <v>1191</v>
       </c>
       <c r="C294">
         <f t="shared" ca="1" si="8"/>
-        <v>906</v>
+        <v>230</v>
       </c>
       <c r="D294" t="s">
         <v>293</v>
@@ -7740,11 +7740,11 @@
       </c>
       <c r="B295">
         <f t="shared" ca="1" si="8"/>
-        <v>1873</v>
+        <v>725</v>
       </c>
       <c r="C295">
         <f t="shared" ca="1" si="8"/>
-        <v>721</v>
+        <v>973</v>
       </c>
       <c r="D295" t="s">
         <v>294</v>
@@ -7760,11 +7760,11 @@
       </c>
       <c r="B296">
         <f t="shared" ca="1" si="8"/>
-        <v>415</v>
+        <v>767</v>
       </c>
       <c r="C296">
         <f t="shared" ca="1" si="8"/>
-        <v>1720</v>
+        <v>1591</v>
       </c>
       <c r="D296" t="s">
         <v>295</v>
@@ -7780,11 +7780,11 @@
       </c>
       <c r="B297">
         <f t="shared" ca="1" si="8"/>
-        <v>435</v>
+        <v>694</v>
       </c>
       <c r="C297">
         <f t="shared" ca="1" si="8"/>
-        <v>1220</v>
+        <v>1902</v>
       </c>
       <c r="D297" t="s">
         <v>296</v>
@@ -7800,11 +7800,11 @@
       </c>
       <c r="B298">
         <f t="shared" ca="1" si="8"/>
-        <v>492</v>
+        <v>1798</v>
       </c>
       <c r="C298">
         <f t="shared" ca="1" si="8"/>
-        <v>122</v>
+        <v>610</v>
       </c>
       <c r="D298" t="s">
         <v>297</v>
@@ -7820,11 +7820,11 @@
       </c>
       <c r="B299">
         <f t="shared" ca="1" si="8"/>
-        <v>1343</v>
+        <v>958</v>
       </c>
       <c r="C299">
         <f t="shared" ca="1" si="8"/>
-        <v>870</v>
+        <v>928</v>
       </c>
       <c r="D299" t="s">
         <v>298</v>
@@ -7840,11 +7840,11 @@
       </c>
       <c r="B300">
         <f t="shared" ca="1" si="8"/>
-        <v>1759</v>
+        <v>1457</v>
       </c>
       <c r="C300">
         <f t="shared" ca="1" si="8"/>
-        <v>882</v>
+        <v>47</v>
       </c>
       <c r="D300" t="s">
         <v>299</v>
@@ -7860,11 +7860,11 @@
       </c>
       <c r="B301">
         <f t="shared" ca="1" si="8"/>
-        <v>831</v>
+        <v>520</v>
       </c>
       <c r="C301">
         <f t="shared" ca="1" si="8"/>
-        <v>1714</v>
+        <v>948</v>
       </c>
       <c r="D301" t="s">
         <v>300</v>
@@ -7880,11 +7880,11 @@
       </c>
       <c r="B302">
         <f t="shared" ca="1" si="8"/>
-        <v>733</v>
+        <v>662</v>
       </c>
       <c r="C302">
         <f t="shared" ca="1" si="8"/>
-        <v>1734</v>
+        <v>1411</v>
       </c>
       <c r="D302" t="s">
         <v>301</v>
@@ -7900,11 +7900,11 @@
       </c>
       <c r="B303">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>1521</v>
       </c>
       <c r="C303">
         <f t="shared" ca="1" si="8"/>
-        <v>1305</v>
+        <v>1489</v>
       </c>
       <c r="D303" t="s">
         <v>302</v>
@@ -7920,11 +7920,11 @@
       </c>
       <c r="B304">
         <f t="shared" ca="1" si="8"/>
-        <v>1409</v>
+        <v>662</v>
       </c>
       <c r="C304">
         <f t="shared" ca="1" si="8"/>
-        <v>1082</v>
+        <v>124</v>
       </c>
       <c r="D304" t="s">
         <v>303</v>
@@ -7940,11 +7940,11 @@
       </c>
       <c r="B305">
         <f t="shared" ca="1" si="8"/>
-        <v>1782</v>
+        <v>1868</v>
       </c>
       <c r="C305">
         <f t="shared" ca="1" si="8"/>
-        <v>1706</v>
+        <v>118</v>
       </c>
       <c r="D305" t="s">
         <v>304</v>
@@ -7960,11 +7960,11 @@
       </c>
       <c r="B306">
         <f t="shared" ca="1" si="8"/>
-        <v>983</v>
+        <v>1552</v>
       </c>
       <c r="C306">
         <f t="shared" ca="1" si="8"/>
-        <v>1722</v>
+        <v>918</v>
       </c>
       <c r="D306" t="s">
         <v>305</v>
@@ -7980,11 +7980,11 @@
       </c>
       <c r="B307">
         <f t="shared" ca="1" si="8"/>
-        <v>1242</v>
+        <v>1446</v>
       </c>
       <c r="C307">
         <f t="shared" ca="1" si="8"/>
-        <v>903</v>
+        <v>37</v>
       </c>
       <c r="D307" t="s">
         <v>306</v>
@@ -8000,11 +8000,11 @@
       </c>
       <c r="B308">
         <f t="shared" ca="1" si="8"/>
-        <v>484</v>
+        <v>669</v>
       </c>
       <c r="C308">
         <f t="shared" ca="1" si="8"/>
-        <v>1487</v>
+        <v>1846</v>
       </c>
       <c r="D308" t="s">
         <v>307</v>
@@ -8020,11 +8020,11 @@
       </c>
       <c r="B309">
         <f t="shared" ca="1" si="8"/>
-        <v>1250</v>
+        <v>566</v>
       </c>
       <c r="C309">
         <f t="shared" ca="1" si="8"/>
-        <v>415</v>
+        <v>1327</v>
       </c>
       <c r="D309" t="s">
         <v>308</v>
@@ -8040,11 +8040,11 @@
       </c>
       <c r="B310">
         <f t="shared" ca="1" si="8"/>
-        <v>375</v>
+        <v>1179</v>
       </c>
       <c r="C310">
         <f t="shared" ca="1" si="8"/>
-        <v>668</v>
+        <v>48</v>
       </c>
       <c r="D310" t="s">
         <v>309</v>
@@ -8060,11 +8060,11 @@
       </c>
       <c r="B311">
         <f t="shared" ca="1" si="8"/>
-        <v>1480</v>
+        <v>1450</v>
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="8"/>
-        <v>295</v>
+        <v>650</v>
       </c>
       <c r="D311" t="s">
         <v>310</v>
@@ -8080,11 +8080,11 @@
       </c>
       <c r="B312">
         <f t="shared" ca="1" si="8"/>
-        <v>512</v>
+        <v>1888</v>
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="8"/>
-        <v>1474</v>
+        <v>989</v>
       </c>
       <c r="D312" t="s">
         <v>311</v>
@@ -8100,11 +8100,11 @@
       </c>
       <c r="B313">
         <f t="shared" ca="1" si="8"/>
-        <v>711</v>
+        <v>616</v>
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="8"/>
-        <v>228</v>
+        <v>773</v>
       </c>
       <c r="D313" t="s">
         <v>312</v>
@@ -8120,11 +8120,11 @@
       </c>
       <c r="B314">
         <f t="shared" ca="1" si="8"/>
-        <v>1601</v>
+        <v>754</v>
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="8"/>
-        <v>1745</v>
+        <v>989</v>
       </c>
       <c r="D314" t="s">
         <v>313</v>
@@ -8140,11 +8140,11 @@
       </c>
       <c r="B315">
         <f t="shared" ca="1" si="8"/>
-        <v>125</v>
+        <v>516</v>
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="8"/>
-        <v>1724</v>
+        <v>459</v>
       </c>
       <c r="D315" t="s">
         <v>314</v>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="B316">
         <f t="shared" ca="1" si="8"/>
-        <v>770</v>
+        <v>1348</v>
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="8"/>
-        <v>1588</v>
+        <v>60</v>
       </c>
       <c r="D316" t="s">
         <v>315</v>
@@ -8180,11 +8180,11 @@
       </c>
       <c r="B317">
         <f t="shared" ca="1" si="8"/>
-        <v>1174</v>
+        <v>639</v>
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="8"/>
-        <v>850</v>
+        <v>965</v>
       </c>
       <c r="D317" t="s">
         <v>316</v>
@@ -8200,11 +8200,11 @@
       </c>
       <c r="B318">
         <f t="shared" ca="1" si="8"/>
-        <v>706</v>
+        <v>237</v>
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D318" t="s">
         <v>317</v>
@@ -8220,11 +8220,11 @@
       </c>
       <c r="B319">
         <f t="shared" ca="1" si="8"/>
-        <v>634</v>
+        <v>688</v>
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="8"/>
-        <v>1855</v>
+        <v>422</v>
       </c>
       <c r="D319" t="s">
         <v>318</v>
@@ -8240,11 +8240,11 @@
       </c>
       <c r="B320">
         <f t="shared" ca="1" si="8"/>
-        <v>823</v>
+        <v>1885</v>
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="8"/>
-        <v>287</v>
+        <v>1323</v>
       </c>
       <c r="D320" t="s">
         <v>319</v>
@@ -8260,11 +8260,11 @@
       </c>
       <c r="B321">
         <f t="shared" ca="1" si="8"/>
-        <v>1886</v>
+        <v>571</v>
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="8"/>
-        <v>766</v>
+        <v>1224</v>
       </c>
       <c r="D321" t="s">
         <v>320</v>
@@ -8280,11 +8280,11 @@
       </c>
       <c r="B322">
         <f t="shared" ref="B322:C385" ca="1" si="10">RANDBETWEEN(1,2000)</f>
-        <v>142</v>
+        <v>1621</v>
       </c>
       <c r="C322">
         <f t="shared" ca="1" si="10"/>
-        <v>586</v>
+        <v>1402</v>
       </c>
       <c r="D322" t="s">
         <v>321</v>
@@ -8300,11 +8300,11 @@
       </c>
       <c r="B323">
         <f t="shared" ca="1" si="10"/>
-        <v>1508</v>
+        <v>1690</v>
       </c>
       <c r="C323">
         <f t="shared" ca="1" si="10"/>
-        <v>925</v>
+        <v>816</v>
       </c>
       <c r="D323" t="s">
         <v>322</v>
@@ -8320,11 +8320,11 @@
       </c>
       <c r="B324">
         <f t="shared" ca="1" si="10"/>
-        <v>356</v>
+        <v>839</v>
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="10"/>
-        <v>903</v>
+        <v>1526</v>
       </c>
       <c r="D324" t="s">
         <v>323</v>
@@ -8340,11 +8340,11 @@
       </c>
       <c r="B325">
         <f t="shared" ca="1" si="10"/>
-        <v>1043</v>
+        <v>470</v>
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="D325" t="s">
         <v>324</v>
@@ -8360,11 +8360,11 @@
       </c>
       <c r="B326">
         <f t="shared" ca="1" si="10"/>
-        <v>135</v>
+        <v>1378</v>
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="10"/>
-        <v>401</v>
+        <v>725</v>
       </c>
       <c r="D326" t="s">
         <v>325</v>
@@ -8380,11 +8380,11 @@
       </c>
       <c r="B327">
         <f t="shared" ca="1" si="10"/>
-        <v>1718</v>
+        <v>1806</v>
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="10"/>
-        <v>1793</v>
+        <v>695</v>
       </c>
       <c r="D327" t="s">
         <v>326</v>
@@ -8400,11 +8400,11 @@
       </c>
       <c r="B328">
         <f t="shared" ca="1" si="10"/>
-        <v>358</v>
+        <v>550</v>
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="D328" t="s">
         <v>327</v>
@@ -8420,11 +8420,11 @@
       </c>
       <c r="B329">
         <f t="shared" ca="1" si="10"/>
-        <v>132</v>
+        <v>438</v>
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="10"/>
-        <v>712</v>
+        <v>1315</v>
       </c>
       <c r="D329" t="s">
         <v>328</v>
@@ -8440,11 +8440,11 @@
       </c>
       <c r="B330">
         <f t="shared" ca="1" si="10"/>
-        <v>1599</v>
+        <v>497</v>
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="10"/>
-        <v>773</v>
+        <v>157</v>
       </c>
       <c r="D330" t="s">
         <v>329</v>
@@ -8460,11 +8460,11 @@
       </c>
       <c r="B331">
         <f t="shared" ca="1" si="10"/>
-        <v>1293</v>
+        <v>672</v>
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="10"/>
-        <v>931</v>
+        <v>1456</v>
       </c>
       <c r="D331" t="s">
         <v>330</v>
@@ -8480,11 +8480,11 @@
       </c>
       <c r="B332">
         <f t="shared" ca="1" si="10"/>
-        <v>1724</v>
+        <v>352</v>
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="10"/>
-        <v>499</v>
+        <v>4</v>
       </c>
       <c r="D332" t="s">
         <v>331</v>
@@ -8500,11 +8500,11 @@
       </c>
       <c r="B333">
         <f t="shared" ca="1" si="10"/>
-        <v>1633</v>
+        <v>438</v>
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="10"/>
-        <v>818</v>
+        <v>1065</v>
       </c>
       <c r="D333" t="s">
         <v>332</v>
@@ -8520,11 +8520,11 @@
       </c>
       <c r="B334">
         <f t="shared" ca="1" si="10"/>
-        <v>301</v>
+        <v>169</v>
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="10"/>
-        <v>996</v>
+        <v>1014</v>
       </c>
       <c r="D334" t="s">
         <v>333</v>
@@ -8540,11 +8540,11 @@
       </c>
       <c r="B335">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>658</v>
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="10"/>
-        <v>1527</v>
+        <v>925</v>
       </c>
       <c r="D335" t="s">
         <v>334</v>
@@ -8560,11 +8560,11 @@
       </c>
       <c r="B336">
         <f t="shared" ca="1" si="10"/>
-        <v>329</v>
+        <v>810</v>
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="10"/>
-        <v>424</v>
+        <v>1784</v>
       </c>
       <c r="D336" t="s">
         <v>335</v>
@@ -8580,11 +8580,11 @@
       </c>
       <c r="B337">
         <f t="shared" ca="1" si="10"/>
-        <v>478</v>
+        <v>607</v>
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="10"/>
-        <v>1577</v>
+        <v>755</v>
       </c>
       <c r="D337" t="s">
         <v>336</v>
@@ -8600,11 +8600,11 @@
       </c>
       <c r="B338">
         <f t="shared" ca="1" si="10"/>
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="10"/>
-        <v>912</v>
+        <v>220</v>
       </c>
       <c r="D338" t="s">
         <v>337</v>
@@ -8620,11 +8620,11 @@
       </c>
       <c r="B339">
         <f t="shared" ca="1" si="10"/>
-        <v>637</v>
+        <v>1355</v>
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="10"/>
-        <v>1917</v>
+        <v>757</v>
       </c>
       <c r="D339" t="s">
         <v>338</v>
@@ -8640,11 +8640,11 @@
       </c>
       <c r="B340">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>251</v>
       </c>
       <c r="C340">
         <f t="shared" ca="1" si="10"/>
-        <v>1925</v>
+        <v>1692</v>
       </c>
       <c r="D340" t="s">
         <v>339</v>
@@ -8660,11 +8660,11 @@
       </c>
       <c r="B341">
         <f t="shared" ca="1" si="10"/>
-        <v>1611</v>
+        <v>1407</v>
       </c>
       <c r="C341">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>981</v>
       </c>
       <c r="D341" t="s">
         <v>340</v>
@@ -8680,11 +8680,11 @@
       </c>
       <c r="B342">
         <f t="shared" ca="1" si="10"/>
-        <v>695</v>
+        <v>1938</v>
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="10"/>
-        <v>1515</v>
+        <v>302</v>
       </c>
       <c r="D342" t="s">
         <v>341</v>
@@ -8700,11 +8700,11 @@
       </c>
       <c r="B343">
         <f t="shared" ca="1" si="10"/>
-        <v>1980</v>
+        <v>690</v>
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="10"/>
-        <v>896</v>
+        <v>986</v>
       </c>
       <c r="D343" t="s">
         <v>342</v>
@@ -8720,11 +8720,11 @@
       </c>
       <c r="B344">
         <f t="shared" ca="1" si="10"/>
-        <v>1623</v>
+        <v>1862</v>
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="10"/>
-        <v>192</v>
+        <v>1625</v>
       </c>
       <c r="D344" t="s">
         <v>343</v>
@@ -8740,11 +8740,11 @@
       </c>
       <c r="B345">
         <f t="shared" ca="1" si="10"/>
-        <v>378</v>
+        <v>68</v>
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="10"/>
-        <v>712</v>
+        <v>96</v>
       </c>
       <c r="D345" t="s">
         <v>344</v>
@@ -8760,11 +8760,11 @@
       </c>
       <c r="B346">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>1410</v>
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="10"/>
-        <v>1487</v>
+        <v>1881</v>
       </c>
       <c r="D346" t="s">
         <v>345</v>
@@ -8780,11 +8780,11 @@
       </c>
       <c r="B347">
         <f t="shared" ca="1" si="10"/>
-        <v>678</v>
+        <v>1443</v>
       </c>
       <c r="C347">
         <f t="shared" ca="1" si="10"/>
-        <v>1862</v>
+        <v>520</v>
       </c>
       <c r="D347" t="s">
         <v>346</v>
@@ -8800,11 +8800,11 @@
       </c>
       <c r="B348">
         <f t="shared" ca="1" si="10"/>
-        <v>409</v>
+        <v>1631</v>
       </c>
       <c r="C348">
         <f t="shared" ca="1" si="10"/>
-        <v>1603</v>
+        <v>1674</v>
       </c>
       <c r="D348" t="s">
         <v>347</v>
@@ -8820,11 +8820,11 @@
       </c>
       <c r="B349">
         <f t="shared" ca="1" si="10"/>
-        <v>1770</v>
+        <v>889</v>
       </c>
       <c r="C349">
         <f t="shared" ca="1" si="10"/>
-        <v>1467</v>
+        <v>297</v>
       </c>
       <c r="D349" t="s">
         <v>348</v>
@@ -8840,11 +8840,11 @@
       </c>
       <c r="B350">
         <f t="shared" ca="1" si="10"/>
-        <v>1061</v>
+        <v>1364</v>
       </c>
       <c r="C350">
         <f t="shared" ca="1" si="10"/>
-        <v>1055</v>
+        <v>1549</v>
       </c>
       <c r="D350" t="s">
         <v>349</v>
@@ -8860,11 +8860,11 @@
       </c>
       <c r="B351">
         <f t="shared" ca="1" si="10"/>
-        <v>1281</v>
+        <v>273</v>
       </c>
       <c r="C351">
         <f t="shared" ca="1" si="10"/>
-        <v>676</v>
+        <v>1859</v>
       </c>
       <c r="D351" t="s">
         <v>350</v>
@@ -8880,11 +8880,11 @@
       </c>
       <c r="B352">
         <f t="shared" ca="1" si="10"/>
-        <v>358</v>
+        <v>1584</v>
       </c>
       <c r="C352">
         <f t="shared" ca="1" si="10"/>
-        <v>1913</v>
+        <v>1415</v>
       </c>
       <c r="D352" t="s">
         <v>351</v>
@@ -8900,11 +8900,11 @@
       </c>
       <c r="B353">
         <f t="shared" ca="1" si="10"/>
-        <v>1387</v>
+        <v>801</v>
       </c>
       <c r="C353">
         <f t="shared" ca="1" si="10"/>
-        <v>494</v>
+        <v>811</v>
       </c>
       <c r="D353" t="s">
         <v>352</v>
@@ -8920,11 +8920,11 @@
       </c>
       <c r="B354">
         <f t="shared" ca="1" si="10"/>
-        <v>749</v>
+        <v>246</v>
       </c>
       <c r="C354">
         <f t="shared" ca="1" si="10"/>
-        <v>788</v>
+        <v>1498</v>
       </c>
       <c r="D354" t="s">
         <v>353</v>
@@ -8940,11 +8940,11 @@
       </c>
       <c r="B355">
         <f t="shared" ca="1" si="10"/>
-        <v>1475</v>
+        <v>1218</v>
       </c>
       <c r="C355">
         <f t="shared" ca="1" si="10"/>
-        <v>1214</v>
+        <v>263</v>
       </c>
       <c r="D355" t="s">
         <v>354</v>
@@ -8960,11 +8960,11 @@
       </c>
       <c r="B356">
         <f t="shared" ca="1" si="10"/>
-        <v>1027</v>
+        <v>658</v>
       </c>
       <c r="C356">
         <f t="shared" ca="1" si="10"/>
-        <v>473</v>
+        <v>1100</v>
       </c>
       <c r="D356" t="s">
         <v>355</v>
@@ -8980,11 +8980,11 @@
       </c>
       <c r="B357">
         <f t="shared" ca="1" si="10"/>
-        <v>1175</v>
+        <v>785</v>
       </c>
       <c r="C357">
         <f t="shared" ca="1" si="10"/>
-        <v>1045</v>
+        <v>1729</v>
       </c>
       <c r="D357" t="s">
         <v>356</v>
@@ -9000,11 +9000,11 @@
       </c>
       <c r="B358">
         <f t="shared" ca="1" si="10"/>
-        <v>1324</v>
+        <v>1017</v>
       </c>
       <c r="C358">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>914</v>
       </c>
       <c r="D358" t="s">
         <v>357</v>
@@ -9020,11 +9020,11 @@
       </c>
       <c r="B359">
         <f t="shared" ca="1" si="10"/>
-        <v>1261</v>
+        <v>107</v>
       </c>
       <c r="C359">
         <f t="shared" ca="1" si="10"/>
-        <v>1604</v>
+        <v>56</v>
       </c>
       <c r="D359" t="s">
         <v>358</v>
@@ -9040,11 +9040,11 @@
       </c>
       <c r="B360">
         <f t="shared" ca="1" si="10"/>
-        <v>1038</v>
+        <v>1351</v>
       </c>
       <c r="C360">
         <f t="shared" ca="1" si="10"/>
-        <v>1890</v>
+        <v>1344</v>
       </c>
       <c r="D360" t="s">
         <v>359</v>
@@ -9060,11 +9060,11 @@
       </c>
       <c r="B361">
         <f t="shared" ca="1" si="10"/>
-        <v>1777</v>
+        <v>319</v>
       </c>
       <c r="C361">
         <f t="shared" ca="1" si="10"/>
-        <v>1922</v>
+        <v>1385</v>
       </c>
       <c r="D361" t="s">
         <v>360</v>
@@ -9080,11 +9080,11 @@
       </c>
       <c r="B362">
         <f t="shared" ca="1" si="10"/>
-        <v>499</v>
+        <v>1494</v>
       </c>
       <c r="C362">
         <f t="shared" ca="1" si="10"/>
-        <v>1066</v>
+        <v>1123</v>
       </c>
       <c r="D362" t="s">
         <v>361</v>
@@ -9100,11 +9100,11 @@
       </c>
       <c r="B363">
         <f t="shared" ca="1" si="10"/>
-        <v>825</v>
+        <v>720</v>
       </c>
       <c r="C363">
         <f t="shared" ca="1" si="10"/>
-        <v>1454</v>
+        <v>218</v>
       </c>
       <c r="D363" t="s">
         <v>362</v>
@@ -9120,11 +9120,11 @@
       </c>
       <c r="B364">
         <f t="shared" ca="1" si="10"/>
-        <v>367</v>
+        <v>808</v>
       </c>
       <c r="C364">
         <f t="shared" ca="1" si="10"/>
-        <v>810</v>
+        <v>1238</v>
       </c>
       <c r="D364" t="s">
         <v>363</v>
@@ -9140,11 +9140,11 @@
       </c>
       <c r="B365">
         <f t="shared" ca="1" si="10"/>
-        <v>1193</v>
+        <v>323</v>
       </c>
       <c r="C365">
         <f t="shared" ca="1" si="10"/>
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="D365" t="s">
         <v>364</v>
@@ -9160,11 +9160,11 @@
       </c>
       <c r="B366">
         <f t="shared" ca="1" si="10"/>
-        <v>1413</v>
+        <v>1029</v>
       </c>
       <c r="C366">
         <f t="shared" ca="1" si="10"/>
-        <v>693</v>
+        <v>1814</v>
       </c>
       <c r="D366" t="s">
         <v>365</v>
@@ -9180,11 +9180,11 @@
       </c>
       <c r="B367">
         <f t="shared" ca="1" si="10"/>
-        <v>307</v>
+        <v>1066</v>
       </c>
       <c r="C367">
         <f t="shared" ca="1" si="10"/>
-        <v>1059</v>
+        <v>1414</v>
       </c>
       <c r="D367" t="s">
         <v>366</v>
@@ -9200,11 +9200,11 @@
       </c>
       <c r="B368">
         <f t="shared" ca="1" si="10"/>
-        <v>428</v>
+        <v>670</v>
       </c>
       <c r="C368">
         <f t="shared" ca="1" si="10"/>
-        <v>832</v>
+        <v>1737</v>
       </c>
       <c r="D368" t="s">
         <v>367</v>
@@ -9220,11 +9220,11 @@
       </c>
       <c r="B369">
         <f t="shared" ca="1" si="10"/>
-        <v>789</v>
+        <v>1119</v>
       </c>
       <c r="C369">
         <f t="shared" ca="1" si="10"/>
-        <v>156</v>
+        <v>1343</v>
       </c>
       <c r="D369" t="s">
         <v>368</v>
@@ -9240,11 +9240,11 @@
       </c>
       <c r="B370">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>1984</v>
       </c>
       <c r="C370">
         <f t="shared" ca="1" si="10"/>
-        <v>765</v>
+        <v>1076</v>
       </c>
       <c r="D370" t="s">
         <v>369</v>
@@ -9260,11 +9260,11 @@
       </c>
       <c r="B371">
         <f t="shared" ca="1" si="10"/>
-        <v>1407</v>
+        <v>1119</v>
       </c>
       <c r="C371">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>1786</v>
       </c>
       <c r="D371" t="s">
         <v>370</v>
@@ -9280,11 +9280,11 @@
       </c>
       <c r="B372">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="C372">
         <f t="shared" ca="1" si="10"/>
-        <v>1821</v>
+        <v>507</v>
       </c>
       <c r="D372" t="s">
         <v>371</v>
@@ -9300,11 +9300,11 @@
       </c>
       <c r="B373">
         <f t="shared" ca="1" si="10"/>
-        <v>695</v>
+        <v>993</v>
       </c>
       <c r="C373">
         <f t="shared" ca="1" si="10"/>
-        <v>272</v>
+        <v>1274</v>
       </c>
       <c r="D373" t="s">
         <v>372</v>
@@ -9320,11 +9320,11 @@
       </c>
       <c r="B374">
         <f t="shared" ca="1" si="10"/>
-        <v>1230</v>
+        <v>804</v>
       </c>
       <c r="C374">
         <f t="shared" ca="1" si="10"/>
-        <v>409</v>
+        <v>1192</v>
       </c>
       <c r="D374" t="s">
         <v>373</v>
@@ -9340,11 +9340,11 @@
       </c>
       <c r="B375">
         <f t="shared" ca="1" si="10"/>
-        <v>1189</v>
+        <v>1573</v>
       </c>
       <c r="C375">
         <f t="shared" ca="1" si="10"/>
-        <v>1309</v>
+        <v>1100</v>
       </c>
       <c r="D375" t="s">
         <v>374</v>
@@ -9360,11 +9360,11 @@
       </c>
       <c r="B376">
         <f t="shared" ca="1" si="10"/>
-        <v>376</v>
+        <v>1440</v>
       </c>
       <c r="C376">
         <f t="shared" ca="1" si="10"/>
-        <v>1276</v>
+        <v>685</v>
       </c>
       <c r="D376" t="s">
         <v>375</v>
@@ -9380,11 +9380,11 @@
       </c>
       <c r="B377">
         <f t="shared" ca="1" si="10"/>
-        <v>1210</v>
+        <v>1096</v>
       </c>
       <c r="C377">
         <f t="shared" ca="1" si="10"/>
-        <v>1701</v>
+        <v>1730</v>
       </c>
       <c r="D377" t="s">
         <v>376</v>
@@ -9400,11 +9400,11 @@
       </c>
       <c r="B378">
         <f t="shared" ca="1" si="10"/>
-        <v>1778</v>
+        <v>190</v>
       </c>
       <c r="C378">
         <f t="shared" ca="1" si="10"/>
-        <v>1299</v>
+        <v>1173</v>
       </c>
       <c r="D378" t="s">
         <v>377</v>
@@ -9420,11 +9420,11 @@
       </c>
       <c r="B379">
         <f t="shared" ca="1" si="10"/>
-        <v>1888</v>
+        <v>825</v>
       </c>
       <c r="C379">
         <f t="shared" ca="1" si="10"/>
-        <v>484</v>
+        <v>1744</v>
       </c>
       <c r="D379" t="s">
         <v>378</v>
@@ -9440,11 +9440,11 @@
       </c>
       <c r="B380">
         <f t="shared" ca="1" si="10"/>
-        <v>257</v>
+        <v>392</v>
       </c>
       <c r="C380">
         <f t="shared" ca="1" si="10"/>
-        <v>1680</v>
+        <v>1583</v>
       </c>
       <c r="D380" t="s">
         <v>379</v>
@@ -9460,11 +9460,11 @@
       </c>
       <c r="B381">
         <f t="shared" ca="1" si="10"/>
-        <v>1110</v>
+        <v>1251</v>
       </c>
       <c r="C381">
         <f t="shared" ca="1" si="10"/>
-        <v>1330</v>
+        <v>1410</v>
       </c>
       <c r="D381" t="s">
         <v>380</v>
@@ -9480,11 +9480,11 @@
       </c>
       <c r="B382">
         <f t="shared" ca="1" si="10"/>
-        <v>812</v>
+        <v>1632</v>
       </c>
       <c r="C382">
         <f t="shared" ca="1" si="10"/>
-        <v>250</v>
+        <v>1886</v>
       </c>
       <c r="D382" t="s">
         <v>381</v>
@@ -9500,11 +9500,11 @@
       </c>
       <c r="B383">
         <f t="shared" ca="1" si="10"/>
-        <v>1410</v>
+        <v>1031</v>
       </c>
       <c r="C383">
         <f t="shared" ca="1" si="10"/>
-        <v>618</v>
+        <v>177</v>
       </c>
       <c r="D383" t="s">
         <v>382</v>
@@ -9520,11 +9520,11 @@
       </c>
       <c r="B384">
         <f t="shared" ca="1" si="10"/>
-        <v>249</v>
+        <v>1867</v>
       </c>
       <c r="C384">
         <f t="shared" ca="1" si="10"/>
-        <v>736</v>
+        <v>666</v>
       </c>
       <c r="D384" t="s">
         <v>383</v>
@@ -9540,11 +9540,11 @@
       </c>
       <c r="B385">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>506</v>
       </c>
       <c r="C385">
         <f t="shared" ca="1" si="10"/>
-        <v>606</v>
+        <v>903</v>
       </c>
       <c r="D385" t="s">
         <v>384</v>
@@ -9560,11 +9560,11 @@
       </c>
       <c r="B386">
         <f t="shared" ref="B386:C449" ca="1" si="12">RANDBETWEEN(1,2000)</f>
-        <v>1202</v>
+        <v>258</v>
       </c>
       <c r="C386">
         <f t="shared" ca="1" si="12"/>
-        <v>377</v>
+        <v>1625</v>
       </c>
       <c r="D386" t="s">
         <v>385</v>
@@ -9580,11 +9580,11 @@
       </c>
       <c r="B387">
         <f t="shared" ca="1" si="12"/>
-        <v>213</v>
+        <v>652</v>
       </c>
       <c r="C387">
         <f t="shared" ca="1" si="12"/>
-        <v>1622</v>
+        <v>1388</v>
       </c>
       <c r="D387" t="s">
         <v>386</v>
@@ -9600,11 +9600,11 @@
       </c>
       <c r="B388">
         <f t="shared" ca="1" si="12"/>
-        <v>483</v>
+        <v>1775</v>
       </c>
       <c r="C388">
         <f t="shared" ca="1" si="12"/>
-        <v>1794</v>
+        <v>1588</v>
       </c>
       <c r="D388" t="s">
         <v>387</v>
@@ -9620,11 +9620,11 @@
       </c>
       <c r="B389">
         <f t="shared" ca="1" si="12"/>
-        <v>1232</v>
+        <v>1212</v>
       </c>
       <c r="C389">
         <f t="shared" ca="1" si="12"/>
-        <v>1553</v>
+        <v>408</v>
       </c>
       <c r="D389" t="s">
         <v>388</v>
@@ -9640,11 +9640,11 @@
       </c>
       <c r="B390">
         <f t="shared" ca="1" si="12"/>
-        <v>1893</v>
+        <v>139</v>
       </c>
       <c r="C390">
         <f t="shared" ca="1" si="12"/>
-        <v>1132</v>
+        <v>303</v>
       </c>
       <c r="D390" t="s">
         <v>389</v>
@@ -9660,11 +9660,11 @@
       </c>
       <c r="B391">
         <f t="shared" ca="1" si="12"/>
-        <v>1289</v>
+        <v>654</v>
       </c>
       <c r="C391">
         <f t="shared" ca="1" si="12"/>
-        <v>1118</v>
+        <v>1010</v>
       </c>
       <c r="D391" t="s">
         <v>390</v>
@@ -9680,11 +9680,11 @@
       </c>
       <c r="B392">
         <f t="shared" ca="1" si="12"/>
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="C392">
         <f t="shared" ca="1" si="12"/>
-        <v>1916</v>
+        <v>910</v>
       </c>
       <c r="D392" t="s">
         <v>391</v>
@@ -9700,11 +9700,11 @@
       </c>
       <c r="B393">
         <f t="shared" ca="1" si="12"/>
-        <v>175</v>
+        <v>1149</v>
       </c>
       <c r="C393">
         <f t="shared" ca="1" si="12"/>
-        <v>171</v>
+        <v>1313</v>
       </c>
       <c r="D393" t="s">
         <v>392</v>
@@ -9720,11 +9720,11 @@
       </c>
       <c r="B394">
         <f t="shared" ca="1" si="12"/>
-        <v>1071</v>
+        <v>1315</v>
       </c>
       <c r="C394">
         <f t="shared" ca="1" si="12"/>
-        <v>1171</v>
+        <v>243</v>
       </c>
       <c r="D394" t="s">
         <v>393</v>
@@ -9740,11 +9740,11 @@
       </c>
       <c r="B395">
         <f t="shared" ca="1" si="12"/>
-        <v>546</v>
+        <v>942</v>
       </c>
       <c r="C395">
         <f t="shared" ca="1" si="12"/>
-        <v>1185</v>
+        <v>1457</v>
       </c>
       <c r="D395" t="s">
         <v>394</v>
@@ -9760,11 +9760,11 @@
       </c>
       <c r="B396">
         <f t="shared" ca="1" si="12"/>
-        <v>287</v>
+        <v>1620</v>
       </c>
       <c r="C396">
         <f t="shared" ca="1" si="12"/>
-        <v>541</v>
+        <v>1576</v>
       </c>
       <c r="D396" t="s">
         <v>395</v>
@@ -9780,11 +9780,11 @@
       </c>
       <c r="B397">
         <f t="shared" ca="1" si="12"/>
-        <v>1688</v>
+        <v>717</v>
       </c>
       <c r="C397">
         <f t="shared" ca="1" si="12"/>
-        <v>690</v>
+        <v>763</v>
       </c>
       <c r="D397" t="s">
         <v>396</v>
@@ -9800,11 +9800,11 @@
       </c>
       <c r="B398">
         <f t="shared" ca="1" si="12"/>
-        <v>368</v>
+        <v>1074</v>
       </c>
       <c r="C398">
         <f t="shared" ca="1" si="12"/>
-        <v>1974</v>
+        <v>895</v>
       </c>
       <c r="D398" t="s">
         <v>397</v>
@@ -9820,11 +9820,11 @@
       </c>
       <c r="B399">
         <f t="shared" ca="1" si="12"/>
-        <v>980</v>
+        <v>918</v>
       </c>
       <c r="C399">
         <f t="shared" ca="1" si="12"/>
-        <v>1129</v>
+        <v>1310</v>
       </c>
       <c r="D399" t="s">
         <v>398</v>
@@ -9840,11 +9840,11 @@
       </c>
       <c r="B400">
         <f t="shared" ca="1" si="12"/>
-        <v>1873</v>
+        <v>1453</v>
       </c>
       <c r="C400">
         <f t="shared" ca="1" si="12"/>
-        <v>1329</v>
+        <v>1186</v>
       </c>
       <c r="D400" t="s">
         <v>399</v>
@@ -9860,11 +9860,11 @@
       </c>
       <c r="B401">
         <f t="shared" ca="1" si="12"/>
-        <v>300</v>
+        <v>1409</v>
       </c>
       <c r="C401">
         <f t="shared" ca="1" si="12"/>
-        <v>1173</v>
+        <v>574</v>
       </c>
       <c r="D401" t="s">
         <v>400</v>
@@ -9880,11 +9880,11 @@
       </c>
       <c r="B402">
         <f t="shared" ca="1" si="12"/>
-        <v>657</v>
+        <v>721</v>
       </c>
       <c r="C402">
         <f t="shared" ca="1" si="12"/>
-        <v>1173</v>
+        <v>1109</v>
       </c>
       <c r="D402" t="s">
         <v>401</v>
@@ -9900,11 +9900,11 @@
       </c>
       <c r="B403">
         <f t="shared" ca="1" si="12"/>
-        <v>586</v>
+        <v>640</v>
       </c>
       <c r="C403">
         <f t="shared" ca="1" si="12"/>
-        <v>1814</v>
+        <v>424</v>
       </c>
       <c r="D403" t="s">
         <v>402</v>
@@ -9920,11 +9920,11 @@
       </c>
       <c r="B404">
         <f t="shared" ca="1" si="12"/>
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="C404">
         <f t="shared" ca="1" si="12"/>
-        <v>1054</v>
+        <v>1903</v>
       </c>
       <c r="D404" t="s">
         <v>403</v>
@@ -9940,11 +9940,11 @@
       </c>
       <c r="B405">
         <f t="shared" ca="1" si="12"/>
-        <v>1107</v>
+        <v>136</v>
       </c>
       <c r="C405">
         <f t="shared" ca="1" si="12"/>
-        <v>1249</v>
+        <v>1976</v>
       </c>
       <c r="D405" t="s">
         <v>404</v>
@@ -9960,11 +9960,11 @@
       </c>
       <c r="B406">
         <f t="shared" ca="1" si="12"/>
-        <v>1416</v>
+        <v>1660</v>
       </c>
       <c r="C406">
         <f t="shared" ca="1" si="12"/>
-        <v>615</v>
+        <v>1947</v>
       </c>
       <c r="D406" t="s">
         <v>405</v>
@@ -9980,11 +9980,11 @@
       </c>
       <c r="B407">
         <f t="shared" ca="1" si="12"/>
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C407">
         <f t="shared" ca="1" si="12"/>
-        <v>1436</v>
+        <v>1818</v>
       </c>
       <c r="D407" t="s">
         <v>406</v>
@@ -10000,11 +10000,11 @@
       </c>
       <c r="B408">
         <f t="shared" ca="1" si="12"/>
-        <v>735</v>
+        <v>310</v>
       </c>
       <c r="C408">
         <f t="shared" ca="1" si="12"/>
-        <v>444</v>
+        <v>816</v>
       </c>
       <c r="D408" t="s">
         <v>407</v>
@@ -10020,11 +10020,11 @@
       </c>
       <c r="B409">
         <f t="shared" ca="1" si="12"/>
-        <v>275</v>
+        <v>1585</v>
       </c>
       <c r="C409">
         <f t="shared" ca="1" si="12"/>
-        <v>708</v>
+        <v>1232</v>
       </c>
       <c r="D409" t="s">
         <v>408</v>
@@ -10040,11 +10040,11 @@
       </c>
       <c r="B410">
         <f t="shared" ca="1" si="12"/>
-        <v>160</v>
+        <v>1812</v>
       </c>
       <c r="C410">
         <f t="shared" ca="1" si="12"/>
-        <v>527</v>
+        <v>903</v>
       </c>
       <c r="D410" t="s">
         <v>409</v>
@@ -10060,11 +10060,11 @@
       </c>
       <c r="B411">
         <f t="shared" ca="1" si="12"/>
-        <v>320</v>
+        <v>484</v>
       </c>
       <c r="C411">
         <f t="shared" ca="1" si="12"/>
-        <v>432</v>
+        <v>1985</v>
       </c>
       <c r="D411" t="s">
         <v>410</v>
@@ -10080,11 +10080,11 @@
       </c>
       <c r="B412">
         <f t="shared" ca="1" si="12"/>
-        <v>1415</v>
+        <v>1464</v>
       </c>
       <c r="C412">
         <f t="shared" ca="1" si="12"/>
-        <v>508</v>
+        <v>870</v>
       </c>
       <c r="D412" t="s">
         <v>411</v>
@@ -10100,11 +10100,11 @@
       </c>
       <c r="B413">
         <f t="shared" ca="1" si="12"/>
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C413">
         <f t="shared" ca="1" si="12"/>
-        <v>1855</v>
+        <v>240</v>
       </c>
       <c r="D413" t="s">
         <v>412</v>
@@ -10120,11 +10120,11 @@
       </c>
       <c r="B414">
         <f t="shared" ca="1" si="12"/>
-        <v>1754</v>
+        <v>642</v>
       </c>
       <c r="C414">
         <f t="shared" ca="1" si="12"/>
-        <v>1050</v>
+        <v>1414</v>
       </c>
       <c r="D414" t="s">
         <v>413</v>
@@ -10140,11 +10140,11 @@
       </c>
       <c r="B415">
         <f t="shared" ca="1" si="12"/>
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="C415">
         <f t="shared" ca="1" si="12"/>
-        <v>1683</v>
+        <v>793</v>
       </c>
       <c r="D415" t="s">
         <v>414</v>
@@ -10160,11 +10160,11 @@
       </c>
       <c r="B416">
         <f t="shared" ca="1" si="12"/>
-        <v>1638</v>
+        <v>382</v>
       </c>
       <c r="C416">
         <f t="shared" ca="1" si="12"/>
-        <v>1354</v>
+        <v>1598</v>
       </c>
       <c r="D416" t="s">
         <v>415</v>
@@ -10180,11 +10180,11 @@
       </c>
       <c r="B417">
         <f t="shared" ca="1" si="12"/>
-        <v>466</v>
+        <v>1150</v>
       </c>
       <c r="C417">
         <f t="shared" ca="1" si="12"/>
-        <v>1671</v>
+        <v>1903</v>
       </c>
       <c r="D417" t="s">
         <v>416</v>
@@ -10200,11 +10200,11 @@
       </c>
       <c r="B418">
         <f t="shared" ca="1" si="12"/>
-        <v>408</v>
+        <v>251</v>
       </c>
       <c r="C418">
         <f t="shared" ca="1" si="12"/>
-        <v>1015</v>
+        <v>1633</v>
       </c>
       <c r="D418" t="s">
         <v>417</v>
@@ -10220,11 +10220,11 @@
       </c>
       <c r="B419">
         <f t="shared" ca="1" si="12"/>
-        <v>924</v>
+        <v>459</v>
       </c>
       <c r="C419">
         <f t="shared" ca="1" si="12"/>
-        <v>1878</v>
+        <v>248</v>
       </c>
       <c r="D419" t="s">
         <v>418</v>
@@ -10240,11 +10240,11 @@
       </c>
       <c r="B420">
         <f t="shared" ca="1" si="12"/>
-        <v>1631</v>
+        <v>1668</v>
       </c>
       <c r="C420">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>1378</v>
       </c>
       <c r="D420" t="s">
         <v>419</v>
@@ -10260,11 +10260,11 @@
       </c>
       <c r="B421">
         <f t="shared" ca="1" si="12"/>
-        <v>520</v>
+        <v>1232</v>
       </c>
       <c r="C421">
         <f t="shared" ca="1" si="12"/>
-        <v>1754</v>
+        <v>291</v>
       </c>
       <c r="D421" t="s">
         <v>420</v>
@@ -10280,11 +10280,11 @@
       </c>
       <c r="B422">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>1485</v>
       </c>
       <c r="C422">
         <f t="shared" ca="1" si="12"/>
-        <v>252</v>
+        <v>933</v>
       </c>
       <c r="D422" t="s">
         <v>421</v>
@@ -10300,11 +10300,11 @@
       </c>
       <c r="B423">
         <f t="shared" ca="1" si="12"/>
-        <v>438</v>
+        <v>1642</v>
       </c>
       <c r="C423">
         <f t="shared" ca="1" si="12"/>
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D423" t="s">
         <v>422</v>
@@ -10320,11 +10320,11 @@
       </c>
       <c r="B424">
         <f t="shared" ca="1" si="12"/>
-        <v>757</v>
+        <v>949</v>
       </c>
       <c r="C424">
         <f t="shared" ca="1" si="12"/>
-        <v>869</v>
+        <v>1488</v>
       </c>
       <c r="D424" t="s">
         <v>423</v>
@@ -10340,11 +10340,11 @@
       </c>
       <c r="B425">
         <f t="shared" ca="1" si="12"/>
-        <v>160</v>
+        <v>1308</v>
       </c>
       <c r="C425">
         <f t="shared" ca="1" si="12"/>
-        <v>1413</v>
+        <v>1160</v>
       </c>
       <c r="D425" t="s">
         <v>424</v>
@@ -10360,11 +10360,11 @@
       </c>
       <c r="B426">
         <f t="shared" ca="1" si="12"/>
-        <v>383</v>
+        <v>551</v>
       </c>
       <c r="C426">
         <f t="shared" ca="1" si="12"/>
-        <v>1497</v>
+        <v>312</v>
       </c>
       <c r="D426" t="s">
         <v>425</v>
@@ -10380,11 +10380,11 @@
       </c>
       <c r="B427">
         <f t="shared" ca="1" si="12"/>
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="C427">
         <f t="shared" ca="1" si="12"/>
-        <v>1950</v>
+        <v>1014</v>
       </c>
       <c r="D427" t="s">
         <v>426</v>
@@ -10400,11 +10400,11 @@
       </c>
       <c r="B428">
         <f t="shared" ca="1" si="12"/>
-        <v>1778</v>
+        <v>1653</v>
       </c>
       <c r="C428">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>971</v>
       </c>
       <c r="D428" t="s">
         <v>427</v>
@@ -10420,11 +10420,11 @@
       </c>
       <c r="B429">
         <f t="shared" ca="1" si="12"/>
-        <v>1773</v>
+        <v>1451</v>
       </c>
       <c r="C429">
         <f t="shared" ca="1" si="12"/>
-        <v>1178</v>
+        <v>964</v>
       </c>
       <c r="D429" t="s">
         <v>428</v>
@@ -10440,11 +10440,11 @@
       </c>
       <c r="B430">
         <f t="shared" ca="1" si="12"/>
-        <v>1280</v>
+        <v>1143</v>
       </c>
       <c r="C430">
         <f t="shared" ca="1" si="12"/>
-        <v>1886</v>
+        <v>1641</v>
       </c>
       <c r="D430" t="s">
         <v>429</v>
@@ -10460,11 +10460,11 @@
       </c>
       <c r="B431">
         <f t="shared" ca="1" si="12"/>
-        <v>850</v>
+        <v>798</v>
       </c>
       <c r="C431">
         <f t="shared" ca="1" si="12"/>
-        <v>976</v>
+        <v>221</v>
       </c>
       <c r="D431" t="s">
         <v>430</v>
@@ -10480,11 +10480,11 @@
       </c>
       <c r="B432">
         <f t="shared" ca="1" si="12"/>
-        <v>1054</v>
+        <v>515</v>
       </c>
       <c r="C432">
         <f t="shared" ca="1" si="12"/>
-        <v>1350</v>
+        <v>356</v>
       </c>
       <c r="D432" t="s">
         <v>431</v>
@@ -10500,11 +10500,11 @@
       </c>
       <c r="B433">
         <f t="shared" ca="1" si="12"/>
-        <v>1655</v>
+        <v>1464</v>
       </c>
       <c r="C433">
         <f t="shared" ca="1" si="12"/>
-        <v>1621</v>
+        <v>8</v>
       </c>
       <c r="D433" t="s">
         <v>432</v>
@@ -10520,11 +10520,11 @@
       </c>
       <c r="B434">
         <f t="shared" ca="1" si="12"/>
-        <v>949</v>
+        <v>1108</v>
       </c>
       <c r="C434">
         <f t="shared" ca="1" si="12"/>
-        <v>1935</v>
+        <v>578</v>
       </c>
       <c r="D434" t="s">
         <v>433</v>
@@ -10540,11 +10540,11 @@
       </c>
       <c r="B435">
         <f t="shared" ca="1" si="12"/>
-        <v>377</v>
+        <v>829</v>
       </c>
       <c r="C435">
         <f t="shared" ca="1" si="12"/>
-        <v>601</v>
+        <v>1604</v>
       </c>
       <c r="D435" t="s">
         <v>434</v>
@@ -10560,11 +10560,11 @@
       </c>
       <c r="B436">
         <f t="shared" ca="1" si="12"/>
-        <v>682</v>
+        <v>1667</v>
       </c>
       <c r="C436">
         <f t="shared" ca="1" si="12"/>
-        <v>1499</v>
+        <v>1855</v>
       </c>
       <c r="D436" t="s">
         <v>435</v>
@@ -10580,11 +10580,11 @@
       </c>
       <c r="B437">
         <f t="shared" ca="1" si="12"/>
-        <v>1405</v>
+        <v>1272</v>
       </c>
       <c r="C437">
         <f t="shared" ca="1" si="12"/>
-        <v>920</v>
+        <v>391</v>
       </c>
       <c r="D437" t="s">
         <v>436</v>
@@ -10600,11 +10600,11 @@
       </c>
       <c r="B438">
         <f t="shared" ca="1" si="12"/>
-        <v>1563</v>
+        <v>712</v>
       </c>
       <c r="C438">
         <f t="shared" ca="1" si="12"/>
-        <v>1049</v>
+        <v>9</v>
       </c>
       <c r="D438" t="s">
         <v>437</v>
@@ -10620,11 +10620,11 @@
       </c>
       <c r="B439">
         <f t="shared" ca="1" si="12"/>
-        <v>332</v>
+        <v>1604</v>
       </c>
       <c r="C439">
         <f t="shared" ca="1" si="12"/>
-        <v>1610</v>
+        <v>1624</v>
       </c>
       <c r="D439" t="s">
         <v>438</v>
@@ -10640,11 +10640,11 @@
       </c>
       <c r="B440">
         <f t="shared" ca="1" si="12"/>
-        <v>1592</v>
+        <v>214</v>
       </c>
       <c r="C440">
         <f t="shared" ca="1" si="12"/>
-        <v>1321</v>
+        <v>818</v>
       </c>
       <c r="D440" t="s">
         <v>439</v>
@@ -10660,11 +10660,11 @@
       </c>
       <c r="B441">
         <f t="shared" ca="1" si="12"/>
-        <v>1928</v>
+        <v>1087</v>
       </c>
       <c r="C441">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D441" t="s">
         <v>440</v>
@@ -10680,11 +10680,11 @@
       </c>
       <c r="B442">
         <f t="shared" ca="1" si="12"/>
-        <v>811</v>
+        <v>1810</v>
       </c>
       <c r="C442">
         <f t="shared" ca="1" si="12"/>
-        <v>1622</v>
+        <v>1758</v>
       </c>
       <c r="D442" t="s">
         <v>441</v>
@@ -10700,11 +10700,11 @@
       </c>
       <c r="B443">
         <f t="shared" ca="1" si="12"/>
-        <v>1747</v>
+        <v>375</v>
       </c>
       <c r="C443">
         <f t="shared" ca="1" si="12"/>
-        <v>1720</v>
+        <v>994</v>
       </c>
       <c r="D443" t="s">
         <v>442</v>
@@ -10720,11 +10720,11 @@
       </c>
       <c r="B444">
         <f t="shared" ca="1" si="12"/>
-        <v>558</v>
+        <v>316</v>
       </c>
       <c r="C444">
         <f t="shared" ca="1" si="12"/>
-        <v>1513</v>
+        <v>1059</v>
       </c>
       <c r="D444" t="s">
         <v>443</v>
@@ -10740,11 +10740,11 @@
       </c>
       <c r="B445">
         <f t="shared" ca="1" si="12"/>
-        <v>1286</v>
+        <v>95</v>
       </c>
       <c r="C445">
         <f t="shared" ca="1" si="12"/>
-        <v>1084</v>
+        <v>1770</v>
       </c>
       <c r="D445" t="s">
         <v>444</v>
@@ -10760,11 +10760,11 @@
       </c>
       <c r="B446">
         <f t="shared" ca="1" si="12"/>
-        <v>564</v>
+        <v>1151</v>
       </c>
       <c r="C446">
         <f t="shared" ca="1" si="12"/>
-        <v>159</v>
+        <v>807</v>
       </c>
       <c r="D446" t="s">
         <v>445</v>
@@ -10780,11 +10780,11 @@
       </c>
       <c r="B447">
         <f t="shared" ca="1" si="12"/>
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C447">
         <f t="shared" ca="1" si="12"/>
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="D447" t="s">
         <v>446</v>
@@ -10800,11 +10800,11 @@
       </c>
       <c r="B448">
         <f t="shared" ca="1" si="12"/>
-        <v>905</v>
+        <v>384</v>
       </c>
       <c r="C448">
         <f t="shared" ca="1" si="12"/>
-        <v>1192</v>
+        <v>1017</v>
       </c>
       <c r="D448" t="s">
         <v>447</v>
@@ -10820,11 +10820,11 @@
       </c>
       <c r="B449">
         <f t="shared" ca="1" si="12"/>
-        <v>862</v>
+        <v>320</v>
       </c>
       <c r="C449">
         <f t="shared" ca="1" si="12"/>
-        <v>1982</v>
+        <v>226</v>
       </c>
       <c r="D449" t="s">
         <v>448</v>
@@ -10840,11 +10840,11 @@
       </c>
       <c r="B450">
         <f t="shared" ref="B450:C500" ca="1" si="14">RANDBETWEEN(1,2000)</f>
-        <v>1968</v>
+        <v>347</v>
       </c>
       <c r="C450">
         <f t="shared" ca="1" si="14"/>
-        <v>1913</v>
+        <v>684</v>
       </c>
       <c r="D450" t="s">
         <v>449</v>
@@ -10860,11 +10860,11 @@
       </c>
       <c r="B451">
         <f t="shared" ca="1" si="14"/>
-        <v>940</v>
+        <v>6</v>
       </c>
       <c r="C451">
         <f t="shared" ca="1" si="14"/>
-        <v>823</v>
+        <v>1152</v>
       </c>
       <c r="D451" t="s">
         <v>450</v>
@@ -10880,11 +10880,11 @@
       </c>
       <c r="B452">
         <f t="shared" ca="1" si="14"/>
-        <v>1548</v>
+        <v>1026</v>
       </c>
       <c r="C452">
         <f t="shared" ca="1" si="14"/>
-        <v>530</v>
+        <v>1568</v>
       </c>
       <c r="D452" t="s">
         <v>451</v>
@@ -10900,11 +10900,11 @@
       </c>
       <c r="B453">
         <f t="shared" ca="1" si="14"/>
-        <v>1749</v>
+        <v>262</v>
       </c>
       <c r="C453">
         <f t="shared" ca="1" si="14"/>
-        <v>1894</v>
+        <v>1447</v>
       </c>
       <c r="D453" t="s">
         <v>452</v>
@@ -10920,11 +10920,11 @@
       </c>
       <c r="B454">
         <f t="shared" ca="1" si="14"/>
-        <v>234</v>
+        <v>1405</v>
       </c>
       <c r="C454">
         <f t="shared" ca="1" si="14"/>
-        <v>1877</v>
+        <v>269</v>
       </c>
       <c r="D454" t="s">
         <v>453</v>
@@ -10940,11 +10940,11 @@
       </c>
       <c r="B455">
         <f t="shared" ca="1" si="14"/>
-        <v>1495</v>
+        <v>294</v>
       </c>
       <c r="C455">
         <f t="shared" ca="1" si="14"/>
-        <v>1748</v>
+        <v>641</v>
       </c>
       <c r="D455" t="s">
         <v>454</v>
@@ -10960,11 +10960,11 @@
       </c>
       <c r="B456">
         <f t="shared" ca="1" si="14"/>
-        <v>733</v>
+        <v>1694</v>
       </c>
       <c r="C456">
         <f t="shared" ca="1" si="14"/>
-        <v>306</v>
+        <v>764</v>
       </c>
       <c r="D456" t="s">
         <v>455</v>
@@ -10980,11 +10980,11 @@
       </c>
       <c r="B457">
         <f t="shared" ca="1" si="14"/>
-        <v>389</v>
+        <v>592</v>
       </c>
       <c r="C457">
         <f t="shared" ca="1" si="14"/>
-        <v>185</v>
+        <v>636</v>
       </c>
       <c r="D457" t="s">
         <v>456</v>
@@ -11000,11 +11000,11 @@
       </c>
       <c r="B458">
         <f t="shared" ca="1" si="14"/>
-        <v>1387</v>
+        <v>114</v>
       </c>
       <c r="C458">
         <f t="shared" ca="1" si="14"/>
-        <v>463</v>
+        <v>1170</v>
       </c>
       <c r="D458" t="s">
         <v>457</v>
@@ -11020,11 +11020,11 @@
       </c>
       <c r="B459">
         <f t="shared" ca="1" si="14"/>
-        <v>548</v>
+        <v>1281</v>
       </c>
       <c r="C459">
         <f t="shared" ca="1" si="14"/>
-        <v>1433</v>
+        <v>534</v>
       </c>
       <c r="D459" t="s">
         <v>458</v>
@@ -11040,11 +11040,11 @@
       </c>
       <c r="B460">
         <f t="shared" ca="1" si="14"/>
-        <v>784</v>
+        <v>1198</v>
       </c>
       <c r="C460">
         <f t="shared" ca="1" si="14"/>
-        <v>785</v>
+        <v>1221</v>
       </c>
       <c r="D460" t="s">
         <v>459</v>
@@ -11060,11 +11060,11 @@
       </c>
       <c r="B461">
         <f t="shared" ca="1" si="14"/>
-        <v>1224</v>
+        <v>1549</v>
       </c>
       <c r="C461">
         <f t="shared" ca="1" si="14"/>
-        <v>1866</v>
+        <v>713</v>
       </c>
       <c r="D461" t="s">
         <v>460</v>
@@ -11080,11 +11080,11 @@
       </c>
       <c r="B462">
         <f t="shared" ca="1" si="14"/>
-        <v>1221</v>
+        <v>1339</v>
       </c>
       <c r="C462">
         <f t="shared" ca="1" si="14"/>
-        <v>538</v>
+        <v>939</v>
       </c>
       <c r="D462" t="s">
         <v>461</v>
@@ -11100,11 +11100,11 @@
       </c>
       <c r="B463">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C463">
         <f t="shared" ca="1" si="14"/>
-        <v>1289</v>
+        <v>1931</v>
       </c>
       <c r="D463" t="s">
         <v>462</v>
@@ -11120,11 +11120,11 @@
       </c>
       <c r="B464">
         <f t="shared" ca="1" si="14"/>
-        <v>1333</v>
+        <v>741</v>
       </c>
       <c r="C464">
         <f t="shared" ca="1" si="14"/>
-        <v>1606</v>
+        <v>427</v>
       </c>
       <c r="D464" t="s">
         <v>463</v>
@@ -11140,11 +11140,11 @@
       </c>
       <c r="B465">
         <f t="shared" ca="1" si="14"/>
-        <v>525</v>
+        <v>700</v>
       </c>
       <c r="C465">
         <f t="shared" ca="1" si="14"/>
-        <v>1928</v>
+        <v>7</v>
       </c>
       <c r="D465" t="s">
         <v>464</v>
@@ -11160,11 +11160,11 @@
       </c>
       <c r="B466">
         <f t="shared" ca="1" si="14"/>
-        <v>1583</v>
+        <v>1734</v>
       </c>
       <c r="C466">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>674</v>
       </c>
       <c r="D466" t="s">
         <v>465</v>
@@ -11180,11 +11180,11 @@
       </c>
       <c r="B467">
         <f t="shared" ca="1" si="14"/>
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="C467">
         <f t="shared" ca="1" si="14"/>
-        <v>1852</v>
+        <v>739</v>
       </c>
       <c r="D467" t="s">
         <v>466</v>
@@ -11200,11 +11200,11 @@
       </c>
       <c r="B468">
         <f t="shared" ca="1" si="14"/>
-        <v>741</v>
+        <v>1851</v>
       </c>
       <c r="C468">
         <f t="shared" ca="1" si="14"/>
-        <v>1520</v>
+        <v>574</v>
       </c>
       <c r="D468" t="s">
         <v>467</v>
@@ -11220,11 +11220,11 @@
       </c>
       <c r="B469">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>859</v>
       </c>
       <c r="C469">
         <f t="shared" ca="1" si="14"/>
-        <v>1953</v>
+        <v>1447</v>
       </c>
       <c r="D469" t="s">
         <v>468</v>
@@ -11240,11 +11240,11 @@
       </c>
       <c r="B470">
         <f t="shared" ca="1" si="14"/>
-        <v>556</v>
+        <v>353</v>
       </c>
       <c r="C470">
         <f t="shared" ca="1" si="14"/>
-        <v>311</v>
+        <v>594</v>
       </c>
       <c r="D470" t="s">
         <v>469</v>
@@ -11260,11 +11260,11 @@
       </c>
       <c r="B471">
         <f t="shared" ca="1" si="14"/>
-        <v>709</v>
+        <v>91</v>
       </c>
       <c r="C471">
         <f t="shared" ca="1" si="14"/>
-        <v>1670</v>
+        <v>1866</v>
       </c>
       <c r="D471" t="s">
         <v>470</v>
@@ -11280,11 +11280,11 @@
       </c>
       <c r="B472">
         <f t="shared" ca="1" si="14"/>
-        <v>585</v>
+        <v>1592</v>
       </c>
       <c r="C472">
         <f t="shared" ca="1" si="14"/>
-        <v>166</v>
+        <v>1902</v>
       </c>
       <c r="D472" t="s">
         <v>471</v>
@@ -11300,11 +11300,11 @@
       </c>
       <c r="B473">
         <f t="shared" ca="1" si="14"/>
-        <v>1855</v>
+        <v>733</v>
       </c>
       <c r="C473">
         <f t="shared" ca="1" si="14"/>
-        <v>1051</v>
+        <v>1960</v>
       </c>
       <c r="D473" t="s">
         <v>472</v>
@@ -11320,11 +11320,11 @@
       </c>
       <c r="B474">
         <f t="shared" ca="1" si="14"/>
-        <v>507</v>
+        <v>992</v>
       </c>
       <c r="C474">
         <f t="shared" ca="1" si="14"/>
-        <v>868</v>
+        <v>505</v>
       </c>
       <c r="D474" t="s">
         <v>473</v>
@@ -11340,11 +11340,11 @@
       </c>
       <c r="B475">
         <f t="shared" ca="1" si="14"/>
-        <v>1527</v>
+        <v>71</v>
       </c>
       <c r="C475">
         <f t="shared" ca="1" si="14"/>
-        <v>1079</v>
+        <v>914</v>
       </c>
       <c r="D475" t="s">
         <v>474</v>
@@ -11360,11 +11360,11 @@
       </c>
       <c r="B476">
         <f t="shared" ca="1" si="14"/>
-        <v>207</v>
+        <v>1301</v>
       </c>
       <c r="C476">
         <f t="shared" ca="1" si="14"/>
-        <v>963</v>
+        <v>1650</v>
       </c>
       <c r="D476" t="s">
         <v>475</v>
@@ -11380,11 +11380,11 @@
       </c>
       <c r="B477">
         <f t="shared" ca="1" si="14"/>
-        <v>114</v>
+        <v>1431</v>
       </c>
       <c r="C477">
         <f t="shared" ca="1" si="14"/>
-        <v>768</v>
+        <v>1003</v>
       </c>
       <c r="D477" t="s">
         <v>476</v>
@@ -11400,11 +11400,11 @@
       </c>
       <c r="B478">
         <f t="shared" ca="1" si="14"/>
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="C478">
         <f t="shared" ca="1" si="14"/>
-        <v>209</v>
+        <v>1562</v>
       </c>
       <c r="D478" t="s">
         <v>477</v>
@@ -11420,11 +11420,11 @@
       </c>
       <c r="B479">
         <f t="shared" ca="1" si="14"/>
-        <v>450</v>
+        <v>1600</v>
       </c>
       <c r="C479">
         <f t="shared" ca="1" si="14"/>
-        <v>701</v>
+        <v>1050</v>
       </c>
       <c r="D479" t="s">
         <v>478</v>
@@ -11440,11 +11440,11 @@
       </c>
       <c r="B480">
         <f t="shared" ca="1" si="14"/>
-        <v>699</v>
+        <v>426</v>
       </c>
       <c r="C480">
         <f t="shared" ca="1" si="14"/>
-        <v>983</v>
+        <v>1544</v>
       </c>
       <c r="D480" t="s">
         <v>479</v>
@@ -11460,11 +11460,11 @@
       </c>
       <c r="B481">
         <f t="shared" ca="1" si="14"/>
-        <v>1721</v>
+        <v>338</v>
       </c>
       <c r="C481">
         <f t="shared" ca="1" si="14"/>
-        <v>1966</v>
+        <v>1573</v>
       </c>
       <c r="D481" t="s">
         <v>480</v>
@@ -11480,11 +11480,11 @@
       </c>
       <c r="B482">
         <f t="shared" ca="1" si="14"/>
-        <v>397</v>
+        <v>68</v>
       </c>
       <c r="C482">
         <f t="shared" ca="1" si="14"/>
-        <v>1946</v>
+        <v>1140</v>
       </c>
       <c r="D482" t="s">
         <v>481</v>
@@ -11500,11 +11500,11 @@
       </c>
       <c r="B483">
         <f t="shared" ca="1" si="14"/>
-        <v>1077</v>
+        <v>693</v>
       </c>
       <c r="C483">
         <f t="shared" ca="1" si="14"/>
-        <v>573</v>
+        <v>85</v>
       </c>
       <c r="D483" t="s">
         <v>482</v>
@@ -11520,11 +11520,11 @@
       </c>
       <c r="B484">
         <f t="shared" ca="1" si="14"/>
-        <v>521</v>
+        <v>1680</v>
       </c>
       <c r="C484">
         <f t="shared" ca="1" si="14"/>
-        <v>1744</v>
+        <v>145</v>
       </c>
       <c r="D484" t="s">
         <v>483</v>
@@ -11540,11 +11540,11 @@
       </c>
       <c r="B485">
         <f t="shared" ca="1" si="14"/>
-        <v>1411</v>
+        <v>1922</v>
       </c>
       <c r="C485">
         <f t="shared" ca="1" si="14"/>
-        <v>1496</v>
+        <v>831</v>
       </c>
       <c r="D485" t="s">
         <v>484</v>
@@ -11560,11 +11560,11 @@
       </c>
       <c r="B486">
         <f t="shared" ca="1" si="14"/>
-        <v>498</v>
+        <v>1152</v>
       </c>
       <c r="C486">
         <f t="shared" ca="1" si="14"/>
-        <v>462</v>
+        <v>1592</v>
       </c>
       <c r="D486" t="s">
         <v>485</v>
@@ -11580,11 +11580,11 @@
       </c>
       <c r="B487">
         <f t="shared" ca="1" si="14"/>
-        <v>457</v>
+        <v>1022</v>
       </c>
       <c r="C487">
         <f t="shared" ca="1" si="14"/>
-        <v>620</v>
+        <v>1931</v>
       </c>
       <c r="D487" t="s">
         <v>486</v>
@@ -11600,11 +11600,11 @@
       </c>
       <c r="B488">
         <f t="shared" ca="1" si="14"/>
-        <v>1603</v>
+        <v>574</v>
       </c>
       <c r="C488">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>1536</v>
       </c>
       <c r="D488" t="s">
         <v>487</v>
@@ -11620,11 +11620,11 @@
       </c>
       <c r="B489">
         <f t="shared" ca="1" si="14"/>
-        <v>1704</v>
+        <v>1578</v>
       </c>
       <c r="C489">
         <f t="shared" ca="1" si="14"/>
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="D489" t="s">
         <v>488</v>
@@ -11640,11 +11640,11 @@
       </c>
       <c r="B490">
         <f t="shared" ca="1" si="14"/>
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="C490">
         <f t="shared" ca="1" si="14"/>
-        <v>1457</v>
+        <v>1857</v>
       </c>
       <c r="D490" t="s">
         <v>489</v>
@@ -11660,11 +11660,11 @@
       </c>
       <c r="B491">
         <f t="shared" ca="1" si="14"/>
-        <v>351</v>
+        <v>1739</v>
       </c>
       <c r="C491">
         <f t="shared" ca="1" si="14"/>
-        <v>1444</v>
+        <v>933</v>
       </c>
       <c r="D491" t="s">
         <v>490</v>
@@ -11680,11 +11680,11 @@
       </c>
       <c r="B492">
         <f t="shared" ca="1" si="14"/>
-        <v>919</v>
+        <v>1492</v>
       </c>
       <c r="C492">
         <f t="shared" ca="1" si="14"/>
-        <v>1476</v>
+        <v>980</v>
       </c>
       <c r="D492" t="s">
         <v>491</v>
@@ -11700,11 +11700,11 @@
       </c>
       <c r="B493">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>977</v>
       </c>
       <c r="C493">
         <f t="shared" ca="1" si="14"/>
-        <v>1423</v>
+        <v>339</v>
       </c>
       <c r="D493" t="s">
         <v>492</v>
@@ -11720,11 +11720,11 @@
       </c>
       <c r="B494">
         <f t="shared" ca="1" si="14"/>
-        <v>1856</v>
+        <v>1652</v>
       </c>
       <c r="C494">
         <f t="shared" ca="1" si="14"/>
-        <v>1240</v>
+        <v>226</v>
       </c>
       <c r="D494" t="s">
         <v>493</v>
@@ -11740,11 +11740,11 @@
       </c>
       <c r="B495">
         <f t="shared" ca="1" si="14"/>
-        <v>1628</v>
+        <v>1176</v>
       </c>
       <c r="C495">
         <f t="shared" ca="1" si="14"/>
-        <v>860</v>
+        <v>1990</v>
       </c>
       <c r="D495" t="s">
         <v>494</v>
@@ -11760,11 +11760,11 @@
       </c>
       <c r="B496">
         <f t="shared" ca="1" si="14"/>
-        <v>1177</v>
+        <v>535</v>
       </c>
       <c r="C496">
         <f t="shared" ca="1" si="14"/>
-        <v>1539</v>
+        <v>1444</v>
       </c>
       <c r="D496" t="s">
         <v>495</v>
@@ -11780,11 +11780,11 @@
       </c>
       <c r="B497">
         <f t="shared" ca="1" si="14"/>
-        <v>1407</v>
+        <v>21</v>
       </c>
       <c r="C497">
         <f t="shared" ca="1" si="14"/>
-        <v>1580</v>
+        <v>192</v>
       </c>
       <c r="D497" t="s">
         <v>496</v>
@@ -11800,11 +11800,11 @@
       </c>
       <c r="B498">
         <f t="shared" ca="1" si="14"/>
-        <v>233</v>
+        <v>1818</v>
       </c>
       <c r="C498">
         <f t="shared" ca="1" si="14"/>
-        <v>411</v>
+        <v>999</v>
       </c>
       <c r="D498" t="s">
         <v>497</v>
@@ -11820,11 +11820,11 @@
       </c>
       <c r="B499">
         <f t="shared" ca="1" si="14"/>
-        <v>1567</v>
+        <v>664</v>
       </c>
       <c r="C499">
         <f t="shared" ca="1" si="14"/>
-        <v>151</v>
+        <v>1445</v>
       </c>
       <c r="D499" t="s">
         <v>498</v>
@@ -11840,11 +11840,11 @@
       </c>
       <c r="B500">
         <f t="shared" ca="1" si="14"/>
-        <v>706</v>
+        <v>1748</v>
       </c>
       <c r="C500">
         <f t="shared" ca="1" si="14"/>
-        <v>1466</v>
+        <v>1258</v>
       </c>
       <c r="D500" t="s">
         <v>499</v>
